--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFED140-DC01-42F3-90AA-73568C1520EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D7358-6AE1-4EE1-9D67-39E28CCA7035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>NAME</t>
   </si>
@@ -87,13 +87,19 @@
   </si>
   <si>
     <t>Time Tracking Table</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Wrote the functions to get  the information to make the class eldery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -128,6 +134,20 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -189,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,9 +222,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -220,12 +237,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <right style="thin">
           <color indexed="64"/>
@@ -362,14 +393,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -389,7 +412,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45301.604413078705" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{1BB8C3BC-4C44-4166-98EF-5CD7637D7CB0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E11" sheet="DATA"/>
+    <worksheetSource ref="A1:F11" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -503,7 +526,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA8CAA57-1BC3-44FF-B561-35A49C0A42E4}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA8CAA57-1BC3-44FF-B561-35A49C0A42E4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -576,63 +599,72 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="21">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="20">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="19">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
     <format dxfId="18">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="17">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="16">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="13">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
     <format dxfId="12">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="11">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="10">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+      <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="7">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
@@ -644,22 +676,13 @@
       </pivotArea>
     </format>
     <format dxfId="6">
-      <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -669,7 +692,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -679,7 +702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -689,7 +712,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -699,7 +722,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -920,38 +943,38 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -963,7 +986,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -983,87 +1006,87 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1096,197 +1119,232 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="14">
+        <v>45301</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
-        <v>45301</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3">
+        <v>45301</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="14">
+        <v>45301</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
-        <v>45301</v>
-      </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>45301</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="14">
+        <v>45301</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
-        <v>45301</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>45301</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="14">
+        <v>45301</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
-        <v>45301</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>45301</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="14">
+        <v>45301</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
-        <v>45301</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>45301</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="14">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
-        <v>45301</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="3">
+        <v>45301</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="14">
+        <v>45301</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3">
-        <v>45301</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>45301</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="14">
+        <v>45301</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="14">
+        <v>45301</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>45301</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="14">
+        <v>45301</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>45301</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E8"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="1">
-      <formula>LEN(TRIM(E2))&gt;0</formula>
+  <conditionalFormatting sqref="F2:F6">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D7358-6AE1-4EE1-9D67-39E28CCA7035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFF2393-AE27-4418-A850-EAF4CE58D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,12 +237,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,22 +957,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1158,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>45301</v>
       </c>
       <c r="C2" s="1">
@@ -1178,7 +1178,7 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>45301</v>
       </c>
       <c r="C3" s="1">
@@ -1196,7 +1196,7 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>45301</v>
       </c>
       <c r="C4" s="1">
@@ -1214,7 +1214,7 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>45301</v>
       </c>
       <c r="C5" s="1">
@@ -1232,7 +1232,7 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>45301</v>
       </c>
       <c r="C6" s="1">
@@ -1250,7 +1250,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>45301</v>
       </c>
       <c r="C7" s="1">
@@ -1270,7 +1270,7 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>45301</v>
       </c>
       <c r="C8" s="1">
@@ -1288,7 +1288,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>45301</v>
       </c>
       <c r="C9" s="1">
@@ -1305,19 +1305,19 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>45301</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="3">
         <v>45301</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>45301</v>
       </c>
       <c r="C11" s="1">

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFF2393-AE27-4418-A850-EAF4CE58D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D73579-F4B4-442C-865B-A7024474808A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>Wrote the functions to get  the information to make the class eldery</t>
+    <t>discussed a game plan on how to approach the situation and wrote the functions to get  the information to make the class eldery</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D73579-F4B4-442C-865B-A7024474808A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D6DAF5-BDDA-4700-B198-5BCC04BAFD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>NAME</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>discussed a game plan on how to approach the situation and wrote the functions to get  the information to make the class eldery</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -220,14 +223,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -946,35 +948,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -986,7 +988,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1006,103 +1008,103 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>20</v>
       </c>
     </row>
@@ -1119,22 +1121,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="73.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,11 +1156,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>45301</v>
       </c>
       <c r="C2" s="1">
@@ -1170,15 +1172,15 @@
       <c r="E2" s="3">
         <v>45301</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>45301</v>
       </c>
       <c r="C3" s="1">
@@ -1190,13 +1192,13 @@
       <c r="E3" s="3">
         <v>45301</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>45301</v>
       </c>
       <c r="C4" s="1">
@@ -1208,13 +1210,13 @@
       <c r="E4" s="3">
         <v>45301</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>45301</v>
       </c>
       <c r="C5" s="1">
@@ -1226,13 +1228,13 @@
       <c r="E5" s="3">
         <v>45301</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>45301</v>
       </c>
       <c r="C6" s="1">
@@ -1244,13 +1246,13 @@
       <c r="E6" s="3">
         <v>45301</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>45301</v>
       </c>
       <c r="C7" s="1">
@@ -1262,15 +1264,15 @@
       <c r="E7" s="3">
         <v>45301</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>45301</v>
       </c>
       <c r="C8" s="1">
@@ -1282,13 +1284,13 @@
       <c r="E8" s="3">
         <v>45301</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>45301</v>
       </c>
       <c r="C9" s="1">
@@ -1301,31 +1303,31 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>45301</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="3">
         <v>45301</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>45301</v>
       </c>
       <c r="C11" s="1">
@@ -1336,6 +1338,11 @@
       </c>
       <c r="E11" s="3">
         <v>45301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D6DAF5-BDDA-4700-B198-5BCC04BAFD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B815E2E-8CC6-41BD-9B14-23826ACCCD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="32" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>NAME</t>
   </si>
@@ -89,13 +89,10 @@
     <t>Time Tracking Table</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>discussed a game plan on how to approach the situation and wrote the functions to get  the information to make the class eldery</t>
   </si>
   <si>
-    <t>help</t>
+    <t>Preparing Presentation for Thursday</t>
   </si>
 </sst>
 </file>
@@ -113,14 +110,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,6 +142,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -180,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,17 +185,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -219,37 +203,317 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="155">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -259,132 +523,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="6" tint="0.39997558519241921"/>
@@ -397,6 +535,692 @@
           <bgColor theme="6" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,9 +1236,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45301.604413078705" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{1BB8C3BC-4C44-4166-98EF-5CD7637D7CB0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45302.49508310185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{AFC0923F-77D9-42DE-894E-B5E3961C3A08}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F11" sheet="DATA"/>
+    <worksheetSource ref="A1:E17" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -427,7 +1251,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="HOURS" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="JOB DESCRIPTION" numFmtId="0">
       <sharedItems count="4">
@@ -438,7 +1262,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-11T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-12T00:00:00"/>
     </cacheField>
     <cacheField name="DETAILS" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -453,7 +1277,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -512,10 +1336,10 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="2"/>
+    <n v="4"/>
     <x v="3"/>
     <d v="2024-01-10T00:00:00"/>
-    <m/>
+    <s v="discussed a game plan on how to approach the situation and wrote the functions to get  the information to make the class eldery"/>
   </r>
   <r>
     <x v="2"/>
@@ -524,11 +1348,53 @@
     <d v="2024-01-10T00:00:00"/>
     <m/>
   </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Preparing Presentation for Thursday"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <d v="2024-01-11T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <d v="2024-01-11T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <d v="2024-01-11T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <d v="2024-01-11T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="0"/>
+    <d v="2024-01-11T00:00:00"/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA8CAA57-1BC3-44FF-B561-35A49C0A42E4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CE63748-0863-46BE-9A3A-7650AA4EB154}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -601,65 +1467,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="22">
+    <format dxfId="45">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="47">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="48">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="49">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="50">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="53">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="54">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="55">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="56">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="59">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -668,7 +1534,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="60">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -677,14 +1543,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -694,7 +1560,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="63">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -704,7 +1570,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -714,7 +1580,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="65">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -724,7 +1590,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="66">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -945,13 +1811,13 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
@@ -959,153 +1825,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="F6" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20</v>
+      <c r="D10" s="10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1121,234 +1987,286 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" customWidth="1"/>
-    <col min="6" max="6" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
         <v>45301</v>
       </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45301</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
         <v>45301</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45301</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
         <v>45301</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45301</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
         <v>45301</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45301</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
         <v>45301</v>
       </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45301</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
         <v>45301</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45301</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
         <v>45301</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45301</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3">
         <v>45301</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
         <v>45301</v>
       </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45301</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
         <v>45301</v>
       </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
         <v>45301</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>23</v>
+      <c r="E12" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45302</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F6">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(F2))&gt;0</formula>
+  <mergeCells count="2">
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="1">
+      <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B815E2E-8CC6-41BD-9B14-23826ACCCD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D050AA-5085-4D69-9477-5D12C0CE07B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>NAME</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Preparing Presentation for Thursday</t>
+  </si>
+  <si>
+    <t>HELP</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -208,312 +211,31 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="155">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -523,6 +245,132 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="6" tint="0.39997558519241921"/>
@@ -535,692 +383,6 @@
           <bgColor theme="6" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1394,7 +556,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CE63748-0863-46BE-9A3A-7650AA4EB154}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CE63748-0863-46BE-9A3A-7650AA4EB154}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1467,65 +629,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="45">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="20">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="19">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="18">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="14">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="13">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="12">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="8">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1534,7 +696,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="7">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1543,14 +705,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1560,7 +722,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1570,7 +732,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1580,7 +742,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1590,7 +752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1825,52 +987,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1878,15 +1040,15 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
         <v>3</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>5</v>
       </c>
     </row>
@@ -1894,15 +1056,15 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>4</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>7</v>
       </c>
     </row>
@@ -1910,15 +1072,15 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>3</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>5</v>
       </c>
     </row>
@@ -1926,15 +1088,15 @@
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>3</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>6</v>
       </c>
     </row>
@@ -1942,35 +1104,35 @@
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>15</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>28</v>
       </c>
     </row>
@@ -1987,10 +1149,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2031,7 +1193,7 @@
       <c r="D2" s="3">
         <v>45301</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2048,7 +1210,7 @@
       <c r="D3" s="3">
         <v>45301</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2063,7 +1225,7 @@
       <c r="D4" s="3">
         <v>45301</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2078,7 +1240,7 @@
       <c r="D5" s="3">
         <v>45301</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2093,7 +1255,7 @@
       <c r="D6" s="3">
         <v>45301</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2154,7 +1316,7 @@
       <c r="D10" s="3">
         <v>45301</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2185,7 +1347,7 @@
       <c r="D12" s="5">
         <v>45301</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2245,7 +1407,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -2257,6 +1419,11 @@
       </c>
       <c r="D17" s="5">
         <v>45302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1432,7 @@
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D050AA-5085-4D69-9477-5D12C0CE07B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ADC055-4D58-4F5E-A10B-587867A71F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>NAME</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Preparing Presentation for Thursday</t>
-  </si>
-  <si>
-    <t>HELP</t>
   </si>
 </sst>
 </file>
@@ -1422,9 +1419,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="E18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ADC055-4D58-4F5E-A10B-587867A71F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4440FF56-6F4C-4783-B177-91B0371AB1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>NAME</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Preparing Presentation for Thursday</t>
+  </si>
+  <si>
+    <t>Finished simulation for both queues</t>
   </si>
 </sst>
 </file>
@@ -973,17 +976,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
@@ -993,7 +996,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1001,7 +1004,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1016,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -1152,15 +1155,15 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1212,7 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,7 +1227,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,7 +1242,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,7 +1289,7 @@
       </c>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1421,22 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="11"/>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45302</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4440FF56-6F4C-4783-B177-91B0371AB1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F68CDC2-6EA0-4BB5-AB93-2C40FA4AB01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F68CDC2-6EA0-4BB5-AB93-2C40FA4AB01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1894B3A-5E68-470A-83CB-051185CE353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>NAME</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Finished simulation for both queues</t>
+  </si>
+  <si>
+    <t>Adds-on(Share beds)</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +180,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -195,16 +204,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,7 +245,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -231,11 +260,164 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -398,9 +580,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45302.49508310185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{AFC0923F-77D9-42DE-894E-B5E3961C3A08}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45302.81530185185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{55123FEF-8636-47A5-9D3D-77231C46C426}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E17" sheet="DATA"/>
+    <worksheetSource ref="A1:E18" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -439,7 +621,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -552,11 +734,18 @@
     <d v="2024-01-11T00:00:00"/>
     <m/>
   </r>
+  <r>
+    <x v="4"/>
+    <n v="4"/>
+    <x v="3"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Finished simulation for both queues"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CE63748-0863-46BE-9A3A-7650AA4EB154}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56EA804B-CCE0-4B0C-BCEA-043CA328E718}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -629,65 +818,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="22">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="42">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="41">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="40">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="39">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="36">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="35">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="34">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="33">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="30">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -696,7 +885,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="29">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -705,14 +894,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -722,7 +911,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -732,7 +921,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -742,7 +931,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -752,7 +941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="23">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -972,168 +1161,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <v>3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
+        <v>8</v>
+      </c>
+      <c r="E6" s="18">
         <v>3</v>
       </c>
-      <c r="F6" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="18">
         <v>3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18">
         <v>3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <v>3</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="17">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="17">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17">
         <v>15</v>
       </c>
-      <c r="F10" s="7">
-        <v>28</v>
+      <c r="F10" s="17">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1149,38 +1338,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1190,14 +1379,14 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,12 +1396,12 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,12 +1411,12 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,12 +1426,12 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1252,12 +1441,12 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1267,14 +1456,14 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1284,12 +1473,12 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1299,28 +1488,28 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>45301</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1330,11 +1519,11 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>45301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1344,14 +1533,14 @@
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>45301</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1361,11 +1550,11 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>45302</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1375,11 +1564,11 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1389,11 +1578,11 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1403,11 +1592,11 @@
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,11 +1606,11 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1431,11 +1620,28 @@
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>45302</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45302</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1650,7 @@
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1894B3A-5E68-470A-83CB-051185CE353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3631530A-08CC-430D-8107-670AF8D16447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>NAME</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Adds-on(Share beds)</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Start with the structure of the report, have a basic idea what we will write about</t>
   </si>
 </sst>
 </file>
@@ -232,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -251,6 +257,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -260,24 +277,154 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -580,9 +727,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45302.81530185185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{55123FEF-8636-47A5-9D3D-77231C46C426}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45303.45178865741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{9CC4935D-2A07-4803-A665-69A09043E0E1}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E18" sheet="DATA"/>
+    <worksheetSource ref="A1:E20" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -598,11 +745,12 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="JOB DESCRIPTION" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="5">
         <s v="Team Meeting"/>
         <s v="Presentation"/>
         <s v="Interface"/>
         <s v="Simulation"/>
+        <s v="Report"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DATE" numFmtId="14">
@@ -621,7 +769,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -741,12 +889,26 @@
     <d v="2024-01-11T00:00:00"/>
     <s v="Finished simulation for both queues"/>
   </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="3"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Adds-on(Share beds)"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Start with the structure of the report, have a basic idea what we will write about"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56EA804B-CCE0-4B0C-BCEA-043CA328E718}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5870C0C0-92FC-4B05-86A2-688A514E19BA}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -760,11 +922,12 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="2"/>
         <item x="1"/>
         <item x="3"/>
         <item x="0"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -797,7 +960,7 @@
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="6">
     <i>
       <x/>
     </i>
@@ -810,6 +973,9 @@
     <i>
       <x v="3"/>
     </i>
+    <i>
+      <x v="4"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -818,65 +984,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="44">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="64">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="63">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="62">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="61">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="58">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="57">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="56">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="55">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="52">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -885,7 +1051,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="51">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -894,14 +1060,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -911,7 +1077,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -921,7 +1087,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -931,7 +1097,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -941,7 +1107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="45">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1159,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -1172,28 +1338,29 @@
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1371,9 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1222,107 +1390,122 @@
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
         <v>3</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="18"/>
+      <c r="G5" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20">
         <v>8</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="20">
         <v>3</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="18"/>
+      <c r="G6" s="20">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
         <v>2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="20">
         <v>3</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="18"/>
+      <c r="G7" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20">
         <v>3</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18">
+      <c r="D8" s="20">
+        <v>2</v>
+      </c>
+      <c r="E8" s="20">
         <v>3</v>
       </c>
       <c r="F8" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20">
         <v>2</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20">
         <v>3</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="18"/>
+      <c r="G9" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="19">
         <v>2</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="19">
         <v>5</v>
       </c>
-      <c r="D10" s="17">
-        <v>10</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="19">
+        <v>12</v>
+      </c>
+      <c r="E10" s="19">
         <v>15</v>
       </c>
-      <c r="F10" s="17">
-        <v>32</v>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1338,10 +1521,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1353,19 +1536,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1382,7 +1565,7 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1399,7 +1582,7 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1414,7 +1597,7 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1429,7 +1612,7 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1444,7 +1627,7 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1459,7 +1642,7 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1476,7 +1659,7 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1640,8 +1823,25 @@
       <c r="D19" s="4">
         <v>45302</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45302</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1850,7 @@
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3631530A-08CC-430D-8107-670AF8D16447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7D520B-D74F-439B-B030-72A30FD7BF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>NAME</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Start with the structure of the report, have a basic idea what we will write about</t>
+  </si>
+  <si>
+    <t>Corrected mistakes in simulation, and added some parameters.</t>
   </si>
 </sst>
 </file>
@@ -268,6 +271,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -277,294 +283,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -907,7 +630,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5870C0C0-92FC-4B05-86A2-688A514E19BA}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5870C0C0-92FC-4B05-86A2-688A514E19BA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -984,65 +707,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="66">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="20">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="19">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="18">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="14">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="13">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="12">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="8">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1051,7 +774,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="7">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1060,14 +783,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1077,7 +800,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1087,7 +810,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1097,7 +820,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1107,7 +830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1327,40 +1050,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1096,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1396,115 +1119,115 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17">
         <v>3</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="20">
+      <c r="F5" s="15"/>
+      <c r="G5" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
         <v>8</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>3</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="20">
+      <c r="F6" s="15"/>
+      <c r="G6" s="17">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <v>3</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="20">
+      <c r="F7" s="15"/>
+      <c r="G7" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>2</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>3</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17">
         <v>2</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
         <v>3</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20">
+      <c r="F9" s="15"/>
+      <c r="G9" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>5</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>12</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>15</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="16">
         <v>1</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <v>35</v>
       </c>
     </row>
@@ -1521,21 +1244,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1565,11 +1288,11 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1582,9 +1305,9 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1597,9 +1320,9 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1612,9 +1335,9 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1627,9 +1350,9 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1642,11 +1365,11 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1659,9 +1382,9 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1398,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1706,7 +1429,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1737,7 +1460,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1474,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1765,7 +1488,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1779,7 +1502,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1793,7 +1516,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1810,7 +1533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +1550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1842,6 +1565,23 @@
       </c>
       <c r="E20" s="9" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45303</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1590,7 @@
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7D520B-D74F-439B-B030-72A30FD7BF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD282EEF-3C09-4B39-B443-C1FEB467629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>Start with the structure of the report, have a basic idea what we will write about</t>
   </si>
   <si>
-    <t>Corrected mistakes in simulation, and added some parameters.</t>
+    <t>Corrected mistakes in simulation, and added some parameters, and graphs</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD282EEF-3C09-4B39-B443-C1FEB467629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092126B4-A57F-426C-BA1E-F6FE08A47C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>NAME</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Corrected mistakes in simulation, and added some parameters, and graphs</t>
+  </si>
+  <si>
+    <t>charlotte</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1247,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1582,6 +1585,20 @@
       </c>
       <c r="E21" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45304</v>
       </c>
     </row>
   </sheetData>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092126B4-A57F-426C-BA1E-F6FE08A47C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A4A38B-062D-4FB5-BCD6-E71D0C09ABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t>NAME</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Finished simulation for both queues</t>
   </si>
   <si>
-    <t>Adds-on(Share beds)</t>
-  </si>
-  <si>
     <t>Report</t>
   </si>
   <si>
@@ -110,7 +107,13 @@
     <t>Corrected mistakes in simulation, and added some parameters, and graphs</t>
   </si>
   <si>
-    <t>charlotte</t>
+    <t>Finallizing the project plan</t>
+  </si>
+  <si>
+    <t>Adds-on(Shared beds)</t>
+  </si>
+  <si>
+    <t>Meeting with our supervisor to discuss about our progress and issues we are facing</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -274,9 +277,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -286,11 +286,157 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -298,6 +444,146 @@
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -453,9 +739,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45303.45178865741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{9CC4935D-2A07-4803-A665-69A09043E0E1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45306.566571759256" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="23" xr:uid="{F3FD4F23-82CE-4717-AC4D-C383FB4F58ED}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E20" sheet="DATA"/>
+    <worksheetSource ref="A1:E24" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -468,7 +754,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="HOURS" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
     </cacheField>
     <cacheField name="JOB DESCRIPTION" numFmtId="0">
       <sharedItems count="5">
@@ -480,7 +766,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-12T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-16T00:00:00"/>
     </cacheField>
     <cacheField name="DETAILS" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -495,7 +781,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -620,7 +906,7 @@
     <n v="2"/>
     <x v="3"/>
     <d v="2024-01-11T00:00:00"/>
-    <s v="Adds-on(Share beds)"/>
+    <s v="Adds-on(Shared beds)"/>
   </r>
   <r>
     <x v="0"/>
@@ -629,11 +915,39 @@
     <d v="2024-01-11T00:00:00"/>
     <s v="Start with the structure of the report, have a basic idea what we will write about"/>
   </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="3"/>
+    <d v="2024-01-12T00:00:00"/>
+    <s v="Corrected mistakes in simulation, and added some parameters, and graphs"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="3"/>
+    <d v="2024-01-13T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="Adds-on(Shared beds)"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="4"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Finallizing the project plan"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5870C0C0-92FC-4B05-86A2-688A514E19BA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C84E422-720C-42A3-B53D-C829123CD367}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -710,65 +1024,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="22">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="64">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="63">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="62">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="61">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="58">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="57">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="56">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="55">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="52">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -777,7 +1091,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="51">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -786,14 +1100,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -803,7 +1117,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -813,7 +1127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -823,7 +1137,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -833,7 +1147,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="45">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1059,32 +1373,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1116,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>16</v>
@@ -1126,16 +1440,16 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
         <v>3</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17">
+      <c r="F5" s="18"/>
+      <c r="G5" s="20">
         <v>5</v>
       </c>
     </row>
@@ -1143,33 +1457,33 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17">
-        <v>8</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20">
+        <v>15</v>
+      </c>
+      <c r="E6" s="20">
         <v>3</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17">
-        <v>11</v>
+      <c r="F6" s="18"/>
+      <c r="G6" s="20">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
         <v>2</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="20">
         <v>3</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17">
+      <c r="F7" s="18"/>
+      <c r="G7" s="20">
         <v>5</v>
       </c>
     </row>
@@ -1177,37 +1491,37 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20">
         <v>3</v>
       </c>
-      <c r="D8" s="17">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="20">
         <v>3</v>
       </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
-        <v>9</v>
+      <c r="E8" s="20">
+        <v>3</v>
+      </c>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
+      <c r="G8" s="20">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20">
         <v>2</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20">
         <v>3</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17">
+      <c r="F9" s="18"/>
+      <c r="G9" s="20">
         <v>5</v>
       </c>
     </row>
@@ -1215,23 +1529,23 @@
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="19">
         <v>2</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="19">
         <v>5</v>
       </c>
-      <c r="D10" s="16">
-        <v>12</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="19">
+        <v>20</v>
+      </c>
+      <c r="E10" s="19">
         <v>15</v>
       </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>35</v>
+      <c r="F10" s="19">
+        <v>3</v>
+      </c>
+      <c r="G10" s="19">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1247,10 +1561,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1291,7 +1605,7 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1308,7 +1622,7 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1323,7 +1637,7 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1338,7 +1652,7 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1353,7 +1667,7 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1368,7 +1682,7 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1385,7 +1699,7 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1550,7 +1864,7 @@
         <v>45302</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1561,13 +1875,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4">
         <v>45302</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1584,12 +1898,12 @@
         <v>45303</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1601,13 +1915,125 @@
         <v>45304</v>
       </c>
     </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45305</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4">
+        <v>45306</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E29" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E25:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A4A38B-062D-4FB5-BCD6-E71D0C09ABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B49A13D-E65E-4FDC-BCF8-17B822FC1DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>NAME</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Meeting with our supervisor to discuss about our progress and issues we are facing</t>
+  </si>
+  <si>
+    <t>Changed simulations</t>
   </si>
 </sst>
 </file>
@@ -277,6 +280,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -286,9 +292,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -296,147 +299,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -444,146 +307,6 @@
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -741,7 +464,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45306.566571759256" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="23" xr:uid="{F3FD4F23-82CE-4717-AC4D-C383FB4F58ED}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E24" sheet="DATA"/>
+    <worksheetSource ref="A1:E25" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -947,7 +670,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C84E422-720C-42A3-B53D-C829123CD367}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C84E422-720C-42A3-B53D-C829123CD367}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1024,65 +747,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="66">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="20">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="19">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="18">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="14">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="13">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="12">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="8">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1091,7 +814,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="7">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1100,14 +823,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1117,7 +840,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1127,7 +850,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1137,7 +860,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1147,7 +870,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1383,22 +1106,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1440,16 +1163,16 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17">
         <v>3</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="20">
+      <c r="F5" s="15"/>
+      <c r="G5" s="17">
         <v>5</v>
       </c>
     </row>
@@ -1457,16 +1180,16 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
         <v>15</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>3</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="20">
+      <c r="F6" s="15"/>
+      <c r="G6" s="17">
         <v>18</v>
       </c>
     </row>
@@ -1474,16 +1197,16 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17">
         <v>3</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="20">
+      <c r="F7" s="15"/>
+      <c r="G7" s="17">
         <v>5</v>
       </c>
     </row>
@@ -1491,20 +1214,20 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>3</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>3</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="15">
         <v>3</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>12</v>
       </c>
     </row>
@@ -1512,16 +1235,16 @@
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20">
-        <v>2</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
         <v>3</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20">
+      <c r="F9" s="15"/>
+      <c r="G9" s="17">
         <v>5</v>
       </c>
     </row>
@@ -1529,22 +1252,22 @@
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19">
-        <v>2</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10" s="16">
+        <v>2</v>
+      </c>
+      <c r="C10" s="16">
         <v>5</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>20</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>15</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="16">
         <v>3</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <v>45</v>
       </c>
     </row>
@@ -1561,10 +1284,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1605,7 +1328,7 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1622,7 +1345,7 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1637,7 +1360,7 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1652,7 +1375,7 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1667,7 +1390,7 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1682,7 +1405,7 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1699,7 +1422,7 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1934,19 +1657,19 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D24" s="4">
         <v>45306</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1957,18 +1680,18 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45307</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45306</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -1979,11 +1702,13 @@
       <c r="D26" s="2">
         <v>45307</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1998,7 +1723,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -2013,7 +1738,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -2025,15 +1750,30 @@
         <v>45307</v>
       </c>
       <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E26:E30"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B49A13D-E65E-4FDC-BCF8-17B822FC1DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D0F0C1-9DA1-420A-82CE-1118020C42B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>NAME</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Changed simulations</t>
+  </si>
+  <si>
+    <t>Project plan and Final report</t>
+  </si>
+  <si>
+    <t>Starting with the sensitivity analysis</t>
   </si>
 </sst>
 </file>
@@ -250,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -280,9 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -295,11 +298,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -462,9 +611,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45306.566571759256" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="23" xr:uid="{F3FD4F23-82CE-4717-AC4D-C383FB4F58ED}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45307.659652314818" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{9BF48AB6-A5E7-4EDE-AFF3-CA48DBA77915}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E25" sheet="DATA"/>
+    <worksheetSource ref="A1:E32" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -489,7 +638,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-16T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-17T00:00:00"/>
     </cacheField>
     <cacheField name="DETAILS" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -504,7 +653,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -660,17 +809,73 @@
     <s v="Adds-on(Shared beds)"/>
   </r>
   <r>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="3"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Changed simulations"/>
+  </r>
+  <r>
     <x v="0"/>
     <n v="2"/>
     <x v="4"/>
     <d v="2024-01-15T00:00:00"/>
     <s v="Finallizing the project plan"/>
   </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Meeting with our supervisor to discuss about our progress and issues we are facing"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-16T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-16T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-16T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-16T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="4"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Project plan and Final report"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Starting with the sensitivity analysis"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C84E422-720C-42A3-B53D-C829123CD367}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA2B5891-8572-41A6-B1EF-2656E795C006}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -747,65 +952,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="22">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="42">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="41">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="40">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="39">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="36">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="35">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="34">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="33">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="30">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -814,7 +1019,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="29">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -823,14 +1028,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -840,7 +1045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -850,7 +1055,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -860,7 +1065,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -870,7 +1075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="23">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1094,36 +1299,36 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1341,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1159,116 +1364,116 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="22">
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17">
-        <v>3</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="20"/>
+      <c r="G5" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17">
-        <v>15</v>
-      </c>
-      <c r="E6" s="17">
-        <v>3</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22">
+        <v>20</v>
+      </c>
+      <c r="E6" s="22">
+        <v>5</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22">
         <v>2</v>
       </c>
-      <c r="E7" s="17">
-        <v>3</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17">
+      <c r="E7" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="20"/>
+      <c r="G7" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22">
         <v>3</v>
       </c>
-      <c r="D8" s="17">
-        <v>3</v>
-      </c>
-      <c r="E8" s="17">
-        <v>3</v>
-      </c>
-      <c r="F8" s="15">
-        <v>3</v>
-      </c>
-      <c r="G8" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="22">
+        <v>4</v>
+      </c>
+      <c r="E8" s="22">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20">
+        <v>6</v>
+      </c>
+      <c r="G8" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22">
         <v>2</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
-        <v>3</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="20"/>
+      <c r="G9" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="21">
         <v>2</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="21">
         <v>5</v>
       </c>
-      <c r="D10" s="16">
-        <v>20</v>
-      </c>
-      <c r="E10" s="16">
-        <v>15</v>
-      </c>
-      <c r="F10" s="16">
-        <v>3</v>
-      </c>
-      <c r="G10" s="16">
-        <v>45</v>
+      <c r="D10" s="21">
+        <v>26</v>
+      </c>
+      <c r="E10" s="21">
+        <v>25</v>
+      </c>
+      <c r="F10" s="21">
+        <v>6</v>
+      </c>
+      <c r="G10" s="21">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1284,21 +1489,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1328,11 +1533,11 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1345,9 +1550,9 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1360,9 +1565,9 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1375,9 +1580,9 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,9 +1595,9 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1405,11 +1610,11 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1422,9 +1627,9 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1643,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1674,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1486,7 +1691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1500,7 +1705,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1719,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1528,7 +1733,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1747,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +1761,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1573,7 +1778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1607,7 +1812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +1829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1638,7 +1843,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1689,7 +1894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1702,11 +1907,11 @@
       <c r="D26" s="2">
         <v>45307</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1719,9 +1924,9 @@
       <c r="D27" s="2">
         <v>45307</v>
       </c>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1734,9 +1939,9 @@
       <c r="D28" s="2">
         <v>45307</v>
       </c>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1749,9 +1954,9 @@
       <c r="D29" s="2">
         <v>45307</v>
       </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1764,7 +1969,41 @@
       <c r="D30" s="2">
         <v>45307</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45307</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45307</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1773,7 +2012,7 @@
     <mergeCell ref="E26:E30"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D0F0C1-9DA1-420A-82CE-1118020C42B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33867CEF-1ACB-4ECF-8F37-559A8696D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>NAME</t>
   </si>
@@ -286,6 +286,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -298,157 +304,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -875,7 +735,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA2B5891-8572-41A6-B1EF-2656E795C006}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA2B5891-8572-41A6-B1EF-2656E795C006}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -952,65 +812,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="44">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="20">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="19">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="18">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="14">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="13">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="12">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="8">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1019,7 +879,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="7">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1028,14 +888,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1045,7 +905,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1055,7 +915,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1065,7 +925,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1075,7 +935,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1295,40 +1155,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1341,7 +1201,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1364,115 +1224,115 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22">
-        <v>2</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <v>5</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="22">
+      <c r="F5" s="16"/>
+      <c r="G5" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
         <v>20</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>5</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22">
+      <c r="F6" s="16"/>
+      <c r="G6" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22">
-        <v>2</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18">
         <v>5</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22">
+      <c r="F7" s="16"/>
+      <c r="G7" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>4</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>5</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <v>6</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22">
-        <v>2</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <v>5</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22">
+      <c r="F9" s="16"/>
+      <c r="G9" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="21">
-        <v>2</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="17">
         <v>5</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>26</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>25</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="17">
         <v>6</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <v>64</v>
       </c>
     </row>
@@ -1489,21 +1349,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1533,11 +1393,11 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1550,9 +1410,9 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1565,9 +1425,9 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1580,9 +1440,9 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1595,9 +1455,9 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1610,11 +1470,11 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1627,9 +1487,9 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1643,7 +1503,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1674,7 +1534,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +1565,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1579,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1733,7 +1593,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1607,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1761,7 +1621,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1778,7 +1638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1795,7 +1655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1843,7 +1703,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1877,7 +1737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1907,11 +1767,11 @@
       <c r="D26" s="2">
         <v>45307</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1924,9 +1784,9 @@
       <c r="D27" s="2">
         <v>45307</v>
       </c>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1939,9 +1799,9 @@
       <c r="D28" s="2">
         <v>45307</v>
       </c>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1954,9 +1814,9 @@
       <c r="D29" s="2">
         <v>45307</v>
       </c>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1969,9 +1829,9 @@
       <c r="D30" s="2">
         <v>45307</v>
       </c>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1984,11 +1844,11 @@
       <c r="D31" s="4">
         <v>45307</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2001,8 +1861,22 @@
       <c r="D32" s="4">
         <v>45307</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="15" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4">
+        <v>45307</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +1886,7 @@
     <mergeCell ref="E26:E30"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33867CEF-1ACB-4ECF-8F37-559A8696D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8F18E-B986-4982-AFD6-C23A668D2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>NAME</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Starting with the sensitivity analysis</t>
+  </si>
+  <si>
+    <t>Sensitivity analysis about the amount of beds-shared beds</t>
   </si>
 </sst>
 </file>
@@ -286,12 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -304,11 +301,297 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -471,9 +754,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45307.659652314818" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{9BF48AB6-A5E7-4EDE-AFF3-CA48DBA77915}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45310.442911805556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{C5323721-2518-48BC-B6AC-DE85B09D35CB}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E32" sheet="DATA"/>
+    <worksheetSource ref="A1:E36" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -498,7 +781,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-17T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-20T00:00:00"/>
     </cacheField>
     <cacheField name="DETAILS" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -513,7 +796,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -731,11 +1014,39 @@
     <d v="2024-01-16T00:00:00"/>
     <s v="Starting with the sensitivity analysis"/>
   </r>
+  <r>
+    <x v="4"/>
+    <n v="4"/>
+    <x v="3"/>
+    <d v="2024-01-16T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="3"/>
+    <d v="2024-01-17T00:00:00"/>
+    <s v="Sensitivity analysis about the amount of beds-shared beds"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <d v="2024-01-19T00:00:00"/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA2B5891-8572-41A6-B1EF-2656E795C006}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{931C194B-1B0B-4724-9D9B-2200AEA49C41}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -812,65 +1123,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="22">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="64">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="63">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="62">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="61">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="58">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="57">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="56">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="55">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="52">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -879,7 +1190,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="51">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -888,14 +1199,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -905,7 +1216,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -915,7 +1226,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -925,7 +1236,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -935,7 +1246,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="45">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1161,32 +1472,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1228,16 +1539,16 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21">
         <v>5</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18">
+      <c r="F5" s="19"/>
+      <c r="G5" s="21">
         <v>7</v>
       </c>
     </row>
@@ -1245,33 +1556,33 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18">
-        <v>20</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>24</v>
+      </c>
+      <c r="E6" s="21">
         <v>5</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18">
-        <v>25</v>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21">
         <v>2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="21">
         <v>5</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="18">
+      <c r="F7" s="19"/>
+      <c r="G7" s="21">
         <v>7</v>
       </c>
     </row>
@@ -1279,37 +1590,37 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21">
         <v>3</v>
       </c>
-      <c r="D8" s="18">
-        <v>4</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="21">
+        <v>14</v>
+      </c>
+      <c r="E8" s="21">
         <v>5</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="19">
         <v>6</v>
       </c>
-      <c r="G8" s="18">
-        <v>18</v>
+      <c r="G8" s="21">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21">
         <v>2</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21">
         <v>5</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18">
+      <c r="F9" s="19"/>
+      <c r="G9" s="21">
         <v>7</v>
       </c>
     </row>
@@ -1317,23 +1628,23 @@
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="20">
         <v>5</v>
       </c>
-      <c r="D10" s="17">
-        <v>26</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="20">
+        <v>40</v>
+      </c>
+      <c r="E10" s="20">
         <v>25</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="20">
         <v>6</v>
       </c>
-      <c r="G10" s="17">
-        <v>64</v>
+      <c r="G10" s="20">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1349,10 +1660,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1393,7 +1704,7 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1410,7 +1721,7 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1425,7 +1736,7 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1440,7 +1751,7 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1455,7 +1766,7 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1470,7 +1781,7 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1487,7 +1798,7 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1767,7 +2078,7 @@
       <c r="D26" s="2">
         <v>45307</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1784,7 +2095,7 @@
       <c r="D27" s="2">
         <v>45307</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1799,7 +2110,7 @@
       <c r="D28" s="2">
         <v>45307</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1814,7 +2125,7 @@
       <c r="D29" s="2">
         <v>45307</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -1829,7 +2140,7 @@
       <c r="D30" s="2">
         <v>45307</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -1844,7 +2155,7 @@
       <c r="D31" s="4">
         <v>45307</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1861,11 +2172,11 @@
       <c r="D32" s="4">
         <v>45307</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -1879,14 +2190,62 @@
         <v>45307</v>
       </c>
     </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="4">
+        <v>45308</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="4">
+        <v>45309</v>
+      </c>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="4">
+        <v>45310</v>
+      </c>
+      <c r="E36" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E26:E30"/>
+    <mergeCell ref="E34:E36"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8F18E-B986-4982-AFD6-C23A668D2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBBBDD3-7B5C-4004-AC5F-FF1BF9279B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
   <si>
     <t>NAME</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Sensitivity analysis about the amount of beds-shared beds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adds - on decentralisation </t>
   </si>
 </sst>
 </file>
@@ -289,6 +292,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -301,9 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,287 +314,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1046,7 +769,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{931C194B-1B0B-4724-9D9B-2200AEA49C41}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{931C194B-1B0B-4724-9D9B-2200AEA49C41}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1123,65 +846,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="66">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="20">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="19">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="18">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="14">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="13">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="12">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="8">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1190,7 +913,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="7">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1199,14 +922,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1216,7 +939,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1226,7 +949,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1236,7 +959,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1246,7 +969,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1467,7 +1190,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1482,22 +1205,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1539,16 +1262,16 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21">
-        <v>5</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="21">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17">
+        <v>5</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17">
         <v>7</v>
       </c>
     </row>
@@ -1556,16 +1279,16 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
         <v>24</v>
       </c>
-      <c r="E6" s="21">
-        <v>5</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="21">
+      <c r="E6" s="17">
+        <v>5</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="17">
         <v>29</v>
       </c>
     </row>
@@ -1573,16 +1296,16 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="21">
-        <v>5</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="21">
+      <c r="E7" s="17">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17">
         <v>7</v>
       </c>
     </row>
@@ -1590,20 +1313,20 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>14</v>
       </c>
-      <c r="E8" s="21">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15">
         <v>6</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <v>28</v>
       </c>
     </row>
@@ -1611,16 +1334,16 @@
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17">
         <v>2</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="21">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="17">
         <v>7</v>
       </c>
     </row>
@@ -1628,22 +1351,22 @@
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="20">
-        <v>5</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="C10" s="16">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16">
         <v>40</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>25</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="16">
         <v>6</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="16">
         <v>78</v>
       </c>
     </row>
@@ -1660,10 +1383,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1704,7 +1427,7 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1721,7 +1444,7 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1736,7 +1459,7 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1751,7 +1474,7 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1766,7 +1489,7 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1781,7 +1504,7 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1798,7 +1521,7 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2078,7 +1801,7 @@
       <c r="D26" s="2">
         <v>45307</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2095,7 +1818,7 @@
       <c r="D27" s="2">
         <v>45307</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -2110,7 +1833,7 @@
       <c r="D28" s="2">
         <v>45307</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -2125,7 +1848,7 @@
       <c r="D29" s="2">
         <v>45307</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -2140,7 +1863,7 @@
       <c r="D30" s="2">
         <v>45307</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -2236,6 +1959,37 @@
         <v>45310</v>
       </c>
       <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45310</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2245,7 +1999,7 @@
     <mergeCell ref="E34:E36"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBBBDD3-7B5C-4004-AC5F-FF1BF9279B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB136C56-FB20-44B4-A3DD-72FD90F256BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
   <si>
     <t>NAME</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t xml:space="preserve">adds - on decentralisation </t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte </t>
+  </si>
+  <si>
+    <t>Making the simulation bit more realistic</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1199,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1383,10 +1392,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1989,6 +1998,37 @@
       </c>
       <c r="E38" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45313</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB136C56-FB20-44B4-A3DD-72FD90F256BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B945BE-75B5-441B-9B29-40E87444B3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>NAME</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Making the simulation bit more realistic</t>
+  </si>
+  <si>
+    <t>Writing parts about simulation in the report</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1392,10 +1395,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1988,7 +1991,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
@@ -2019,7 +2022,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
@@ -2029,6 +2032,23 @@
       </c>
       <c r="E40" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45313</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B945BE-75B5-441B-9B29-40E87444B3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA6784-AE02-4D02-BD91-0B13A0DF928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATA!$A$1:$E$60</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="37">
   <si>
     <t>NAME</t>
   </si>
@@ -131,16 +134,10 @@
     <t xml:space="preserve">adds - on decentralisation </t>
   </si>
   <si>
-    <t>Optimization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte </t>
-  </si>
-  <si>
-    <t>Making the simulation bit more realistic</t>
-  </si>
-  <si>
-    <t>Writing parts about simulation in the report</t>
+    <t>Zoom Meeting to discuss our progress and work on the presentation for Thursday</t>
+  </si>
+  <si>
+    <t>Optimization of solutions</t>
   </si>
 </sst>
 </file>
@@ -229,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -270,11 +267,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -304,9 +312,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -322,11 +330,309 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -334,6 +640,13 @@
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -489,9 +802,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45310.442911805556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{C5323721-2518-48BC-B6AC-DE85B09D35CB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45314.545582638886" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="61" xr:uid="{C3DF870D-276C-4D94-ACA1-E7F1F17D1A3C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E36" sheet="DATA"/>
+    <worksheetSource ref="A1:E62" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -516,7 +829,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-20T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-24T00:00:00"/>
     </cacheField>
     <cacheField name="DETAILS" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -531,7 +844,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="61">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -583,6 +896,13 @@
   </r>
   <r>
     <x v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <d v="2024-01-10T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <n v="2"/>
     <x v="2"/>
     <d v="2024-01-10T00:00:00"/>
@@ -666,6 +986,13 @@
     <s v="Start with the structure of the report, have a basic idea what we will write about"/>
   </r>
   <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <d v="2024-01-12T00:00:00"/>
+    <m/>
+  </r>
+  <r>
     <x v="4"/>
     <n v="6"/>
     <x v="3"/>
@@ -680,6 +1007,20 @@
     <m/>
   </r>
   <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="2"/>
+    <d v="2024-01-14T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <d v="2024-01-14T00:00:00"/>
+    <m/>
+  </r>
+  <r>
     <x v="0"/>
     <n v="1"/>
     <x v="3"/>
@@ -692,6 +1033,13 @@
     <x v="3"/>
     <d v="2024-01-15T00:00:00"/>
     <s v="Changed simulations"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <d v="2024-01-15T00:00:00"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -736,6 +1084,13 @@
     <m/>
   </r>
   <r>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="2"/>
+    <d v="2024-01-16T00:00:00"/>
+    <m/>
+  </r>
+  <r>
     <x v="0"/>
     <n v="3"/>
     <x v="4"/>
@@ -757,6 +1112,20 @@
     <m/>
   </r>
   <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <d v="2024-01-17T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="2"/>
+    <d v="2024-01-17T00:00:00"/>
+    <m/>
+  </r>
+  <r>
     <x v="0"/>
     <n v="6"/>
     <x v="3"/>
@@ -775,13 +1144,139 @@
     <n v="1"/>
     <x v="3"/>
     <d v="2024-01-19T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="2"/>
+    <d v="2024-01-18T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <x v="2"/>
+    <d v="2024-01-18T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="3"/>
+    <d v="2024-01-18T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="3"/>
+    <d v="2024-01-19T00:00:00"/>
+    <s v="adds - on decentralisation "/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="2"/>
+    <d v="2024-01-19T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <x v="2"/>
+    <d v="2024-01-19T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4"/>
+    <x v="3"/>
+    <d v="2024-01-20T00:00:00"/>
+    <s v="Optimization of solutions"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4"/>
+    <x v="3"/>
+    <d v="2024-01-21T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <d v="2024-01-21T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <d v="2024-01-21T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-22T00:00:00"/>
+    <s v="Zoom Meeting to discuss our progress and work on the presentation for Thursday"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="2"/>
+    <d v="2024-01-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <d v="2024-01-23T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <d v="2024-01-23T00:00:00"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{931C194B-1B0B-4724-9D9B-2200AEA49C41}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B9E4FCE-F437-42DE-8ED3-4CFB4DDD8DE4}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -857,66 +1352,66 @@
   <dataFields count="1">
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="22">
-    <format dxfId="22">
+  <formats count="23">
+    <format dxfId="69">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="67">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="66">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="65">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="64">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="61">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="60">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="59">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="58">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="55">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -925,7 +1420,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="54">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -934,14 +1429,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -951,7 +1446,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -961,7 +1456,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="50">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -971,7 +1466,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -981,7 +1476,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="48">
+      <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1201,40 +1703,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1750,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1270,116 +1773,120 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17">
-        <v>2</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17">
-        <v>5</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17">
+      <c r="B5" s="23">
+        <v>24</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="21"/>
+      <c r="G5" s="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17">
-        <v>24</v>
-      </c>
-      <c r="E6" s="17">
-        <v>5</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23">
+        <v>30</v>
+      </c>
+      <c r="E6" s="23">
+        <v>7</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17">
-        <v>2</v>
-      </c>
-      <c r="E7" s="17">
-        <v>5</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
+        <v>10</v>
+      </c>
+      <c r="E7" s="23">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="21"/>
+      <c r="G7" s="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17">
-        <v>3</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23">
+        <v>7</v>
+      </c>
+      <c r="D8" s="23">
         <v>14</v>
       </c>
-      <c r="E8" s="17">
-        <v>5</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="E8" s="23">
+        <v>7</v>
+      </c>
+      <c r="F8" s="21">
         <v>6</v>
       </c>
-      <c r="G8" s="17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17">
-        <v>2</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
+      <c r="B9" s="23">
+        <v>16</v>
+      </c>
+      <c r="C9" s="23">
         <v>5</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16">
-        <v>2</v>
-      </c>
-      <c r="C10" s="16">
-        <v>5</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="B10" s="22">
         <v>40</v>
       </c>
-      <c r="E10" s="16">
-        <v>25</v>
-      </c>
-      <c r="F10" s="16">
-        <v>6</v>
-      </c>
-      <c r="G10" s="16">
-        <v>78</v>
+      <c r="C10" s="22">
+        <v>12</v>
+      </c>
+      <c r="D10" s="22">
+        <v>54</v>
+      </c>
+      <c r="E10" s="22">
+        <v>35</v>
+      </c>
+      <c r="F10" s="22">
+        <v>7</v>
+      </c>
+      <c r="G10" s="22">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1395,21 +1902,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1439,11 +1946,11 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1456,9 +1963,9 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1471,9 +1978,9 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1486,9 +1993,9 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1501,9 +2008,9 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1516,11 +2023,11 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1533,14 +2040,14 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -1549,55 +2056,52 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="2">
         <v>45301</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
         <v>45301</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1605,15 +2109,18 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
-        <v>45302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45301</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1625,9 +2132,9 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1639,9 +2146,9 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1653,9 +2160,9 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1667,29 +2174,26 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D18" s="4">
         <v>45302</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -1697,369 +2201,679 @@
       <c r="D19" s="4">
         <v>45302</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4">
         <v>45302</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45302</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45303</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B23" s="1">
         <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4">
-        <v>45303</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4">
-        <v>45304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="4">
-        <v>45305</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45303</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="4">
-        <v>45306</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4">
-        <v>45306</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45307</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4">
+        <v>45305</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45306</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45307</v>
-      </c>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2">
-        <v>45307</v>
-      </c>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45307</v>
-      </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45306</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2">
-        <v>45307</v>
-      </c>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45306</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="4">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
         <v>45307</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45307</v>
+      </c>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="4">
-        <v>45307</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="4">
-        <v>45307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4">
-        <v>45308</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="4">
-        <v>45309</v>
-      </c>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="4">
-        <v>45310</v>
-      </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D37" s="4">
-        <v>45309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45307</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="4">
-        <v>45310</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45307</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="4">
-        <v>45311</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D40" s="4">
-        <v>45313</v>
-      </c>
-      <c r="E40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D41" s="4">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45308</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45309</v>
+      </c>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45310</v>
+      </c>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45309</v>
+      </c>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45309</v>
+      </c>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="4">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45310</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45311</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45312</v>
+      </c>
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="4">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="4">
         <v>45313</v>
       </c>
-      <c r="E41" t="s">
-        <v>38</v>
+      <c r="E55" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4">
+        <v>45313</v>
+      </c>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="4">
+        <v>45313</v>
+      </c>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="4">
+        <v>45313</v>
+      </c>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4">
+        <v>45313</v>
+      </c>
+      <c r="E59" s="20"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="4">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="4">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4">
+        <v>45314</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <autoFilter ref="A1:E60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="6">
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="E51:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA6784-AE02-4D02-BD91-0B13A0DF928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B20B23-721A-4EDF-A44B-A7CB4978B985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="38">
   <si>
     <t>NAME</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Optimization of solutions</t>
+  </si>
+  <si>
+    <t>Fix little things in code</t>
   </si>
 </sst>
 </file>
@@ -315,6 +318,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -330,309 +337,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1276,7 +985,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B9E4FCE-F437-42DE-8ED3-4CFB4DDD8DE4}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B9E4FCE-F437-42DE-8ED3-4CFB4DDD8DE4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1353,65 +1062,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="69">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="21">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="20">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="19">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="15">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="14">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="12">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="9">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1420,7 +1129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="8">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1429,14 +1138,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1446,7 +1155,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1456,7 +1165,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1466,7 +1175,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1476,14 +1185,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="2">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1703,41 +1412,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1750,7 +1459,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1773,119 +1482,119 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="18">
         <v>24</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <v>7</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24">
+      <c r="F5" s="16"/>
+      <c r="G5" s="19">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
         <v>30</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="18">
         <v>7</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="24">
+      <c r="F6" s="16"/>
+      <c r="G6" s="19">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
         <v>10</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="18">
         <v>7</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="24">
+      <c r="F7" s="16"/>
+      <c r="G7" s="19">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18">
         <v>7</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="18">
         <v>14</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="18">
         <v>7</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>6</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="19">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="18">
         <v>16</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="18">
         <v>5</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <v>7</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="19">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="17">
         <v>40</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="17">
         <v>12</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="17">
         <v>54</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="17">
         <v>35</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="17">
         <v>7</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="17">
         <v>148</v>
       </c>
     </row>
@@ -1902,21 +1611,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1946,11 +1655,11 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1963,9 +1672,9 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1978,9 +1687,9 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1993,9 +1702,9 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2008,9 +1717,9 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2023,11 +1732,11 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2040,9 +1749,9 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2056,7 +1765,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2070,7 +1779,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2087,7 +1796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +1810,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2118,7 +1827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +1841,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +1855,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2160,7 +1869,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -2174,7 +1883,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2188,7 +1897,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2205,7 +1914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2222,7 +1931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2239,7 +1948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2254,7 +1963,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2271,7 +1980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2285,7 +1994,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2299,7 +2008,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -2313,7 +2022,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2347,7 +2056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2362,7 +2071,7 @@
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2379,7 +2088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2392,11 +2101,11 @@
       <c r="D31" s="2">
         <v>45307</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -2409,9 +2118,9 @@
       <c r="D32" s="2">
         <v>45307</v>
       </c>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2424,9 +2133,9 @@
       <c r="D33" s="2">
         <v>45307</v>
       </c>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2439,9 +2148,9 @@
       <c r="D34" s="2">
         <v>45307</v>
       </c>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2454,9 +2163,9 @@
       <c r="D35" s="2">
         <v>45307</v>
       </c>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -2471,7 +2180,7 @@
       </c>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2488,7 +2197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2505,7 +2214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2519,7 +2228,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2533,7 +2242,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2547,7 +2256,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2560,11 +2269,11 @@
       <c r="D42" s="4">
         <v>45308</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2577,9 +2286,9 @@
       <c r="D43" s="4">
         <v>45309</v>
       </c>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2592,9 +2301,9 @@
       <c r="D44" s="4">
         <v>45310</v>
       </c>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -2609,7 +2318,7 @@
       </c>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -2624,7 +2333,7 @@
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -2638,7 +2347,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -2655,7 +2364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -2669,7 +2378,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -2683,7 +2392,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -2696,11 +2405,11 @@
       <c r="D51" s="4">
         <v>45311</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -2713,9 +2422,9 @@
       <c r="D52" s="4">
         <v>45312</v>
       </c>
-      <c r="E52" s="20"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2729,7 +2438,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -2743,7 +2452,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -2756,11 +2465,11 @@
       <c r="D55" s="4">
         <v>45313</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -2773,9 +2482,9 @@
       <c r="D56" s="4">
         <v>45313</v>
       </c>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -2788,9 +2497,9 @@
       <c r="D57" s="4">
         <v>45313</v>
       </c>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -2803,9 +2512,9 @@
       <c r="D58" s="4">
         <v>45313</v>
       </c>
-      <c r="E58" s="20"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -2818,9 +2527,9 @@
       <c r="D59" s="4">
         <v>45313</v>
       </c>
-      <c r="E59" s="20"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -2834,7 +2543,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -2848,7 +2557,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -2860,6 +2569,37 @@
       </c>
       <c r="D62" s="4">
         <v>45314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="4">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="4">
+        <v>45311</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +2613,7 @@
     <mergeCell ref="E51:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B20B23-721A-4EDF-A44B-A7CB4978B985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EE04AC-F6AF-4761-8EE7-DC4F878331BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="39">
   <si>
     <t>NAME</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Fix little things in code</t>
+  </si>
+  <si>
+    <t>Made the picture that shows are queue</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1416,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1611,10 +1614,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2600,6 +2603,23 @@
       </c>
       <c r="E64" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="4">
+        <v>45314</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EE04AC-F6AF-4761-8EE7-DC4F878331BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C8D45B-3B54-4BDB-8E65-E71E5965CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="40">
   <si>
     <t>NAME</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Made the picture that shows are queue</t>
+  </si>
+  <si>
+    <t>checking what should basic settings/ decentralisation/ getting info for confidence interval</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1617,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
@@ -2620,6 +2623,23 @@
       </c>
       <c r="E65" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="4">
+        <v>45316</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C8D45B-3B54-4BDB-8E65-E71E5965CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631D5541-173A-40C7-98B4-4C47EA0DB418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="40">
   <si>
     <t>NAME</t>
   </si>
@@ -324,10 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -343,11 +339,309 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -517,9 +811,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45314.545582638886" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="61" xr:uid="{C3DF870D-276C-4D94-ACA1-E7F1F17D1A3C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45316.835720254632" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="68" xr:uid="{681048AF-4867-47E9-944B-04B23941D069}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E62" sheet="DATA"/>
+    <worksheetSource ref="A1:E69" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -544,7 +838,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-24T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-26T00:00:00"/>
     </cacheField>
     <cacheField name="DETAILS" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -559,7 +853,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="61">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="68">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -987,11 +1281,60 @@
     <d v="2024-01-23T00:00:00"/>
     <m/>
   </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="4"/>
+    <d v="2024-01-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="3"/>
+    <d v="2024-01-20T00:00:00"/>
+    <s v="Fix little things in code"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="4"/>
+    <d v="2024-01-23T00:00:00"/>
+    <s v="Made the picture that shows are queue"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <d v="2024-01-24T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <d v="2024-01-24T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="3"/>
+    <d v="2024-01-25T00:00:00"/>
+    <s v="checking what should basic settings/ decentralisation/ getting info for confidence interval"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <d v="2024-01-25T00:00:00"/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B9E4FCE-F437-42DE-8ED3-4CFB4DDD8DE4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06ACA37D-222D-4B93-B551-8CD798EEFAA0}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1068,65 +1411,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="23">
+    <format dxfId="69">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="67">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="66">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="65">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="64">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="61">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="60">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="59">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="58">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="55">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1135,7 +1478,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="54">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1144,14 +1487,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1161,7 +1504,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1171,7 +1514,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="50">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1181,7 +1524,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1191,14 +1534,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="48">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="47">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1418,39 +1761,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1492,16 +1834,16 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="23">
         <v>24</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23">
         <v>7</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19">
+      <c r="F5" s="21"/>
+      <c r="G5" s="24">
         <v>31</v>
       </c>
     </row>
@@ -1509,33 +1851,35 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18">
-        <v>30</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23">
+        <v>38</v>
+      </c>
+      <c r="E6" s="23">
         <v>7</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="19">
-        <v>37</v>
+      <c r="F6" s="21">
+        <v>2</v>
+      </c>
+      <c r="G6" s="24">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
         <v>10</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="23">
         <v>7</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19">
+      <c r="F7" s="21"/>
+      <c r="G7" s="24">
         <v>17</v>
       </c>
     </row>
@@ -1543,41 +1887,41 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23">
+        <v>10</v>
+      </c>
+      <c r="D8" s="23">
+        <v>18</v>
+      </c>
+      <c r="E8" s="23">
         <v>7</v>
       </c>
-      <c r="D8" s="18">
-        <v>14</v>
-      </c>
-      <c r="E8" s="18">
-        <v>7</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="F8" s="21">
         <v>6</v>
       </c>
-      <c r="G8" s="19">
-        <v>34</v>
+      <c r="G8" s="24">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="23">
         <v>16</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="23">
         <v>5</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
         <v>7</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="24">
         <v>29</v>
       </c>
     </row>
@@ -1585,23 +1929,23 @@
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="22">
         <v>40</v>
       </c>
-      <c r="C10" s="17">
-        <v>12</v>
-      </c>
-      <c r="D10" s="17">
-        <v>54</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="C10" s="22">
+        <v>15</v>
+      </c>
+      <c r="D10" s="22">
+        <v>66</v>
+      </c>
+      <c r="E10" s="22">
         <v>35</v>
       </c>
-      <c r="F10" s="17">
-        <v>7</v>
-      </c>
-      <c r="G10" s="17">
-        <v>148</v>
+      <c r="F10" s="22">
+        <v>9</v>
+      </c>
+      <c r="G10" s="22">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1617,10 +1961,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1661,7 +2005,7 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1678,7 +2022,7 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1693,7 +2037,7 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1708,7 +2052,7 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1723,7 +2067,7 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1738,7 +2082,7 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1755,7 +2099,7 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2107,7 +2451,7 @@
       <c r="D31" s="2">
         <v>45307</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2124,7 +2468,7 @@
       <c r="D32" s="2">
         <v>45307</v>
       </c>
-      <c r="E32" s="23"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -2139,7 +2483,7 @@
       <c r="D33" s="2">
         <v>45307</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -2154,7 +2498,7 @@
       <c r="D34" s="2">
         <v>45307</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -2169,7 +2513,7 @@
       <c r="D35" s="2">
         <v>45307</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -2275,7 +2619,7 @@
       <c r="D42" s="4">
         <v>45308</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2292,7 +2636,7 @@
       <c r="D43" s="4">
         <v>45309</v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -2307,7 +2651,7 @@
       <c r="D44" s="4">
         <v>45310</v>
       </c>
-      <c r="E44" s="24"/>
+      <c r="E44" s="20"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -2411,7 +2755,7 @@
       <c r="D51" s="4">
         <v>45311</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2428,7 +2772,7 @@
       <c r="D52" s="4">
         <v>45312</v>
       </c>
-      <c r="E52" s="24"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -2471,7 +2815,7 @@
       <c r="D55" s="4">
         <v>45313</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="20" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2488,7 +2832,7 @@
       <c r="D56" s="4">
         <v>45313</v>
       </c>
-      <c r="E56" s="24"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -2503,7 +2847,7 @@
       <c r="D57" s="4">
         <v>45313</v>
       </c>
-      <c r="E57" s="24"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -2518,7 +2862,7 @@
       <c r="D58" s="4">
         <v>45313</v>
       </c>
-      <c r="E58" s="24"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -2533,7 +2877,7 @@
       <c r="D59" s="4">
         <v>45313</v>
       </c>
-      <c r="E59" s="24"/>
+      <c r="E59" s="20"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -2627,19 +2971,61 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B66" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="4">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="4">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="1">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="4">
         <v>45316</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="4">
+        <v>45316</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +3039,7 @@
     <mergeCell ref="E51:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631D5541-173A-40C7-98B4-4C47EA0DB418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF02E1-85D3-445B-9533-71393E6F7533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
   <si>
     <t>NAME</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>checking what should basic settings/ decentralisation/ getting info for confidence interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixen stuff, graphs, </t>
   </si>
 </sst>
 </file>
@@ -324,6 +327,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,309 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1334,7 +1043,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06ACA37D-222D-4B93-B551-8CD798EEFAA0}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06ACA37D-222D-4B93-B551-8CD798EEFAA0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1411,65 +1120,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="69">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="21">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="20">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="19">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="15">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="14">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="12">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="9">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1478,7 +1187,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="8">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1487,14 +1196,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1504,7 +1213,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1514,7 +1223,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1524,7 +1233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1534,14 +1243,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="2">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1761,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1777,22 +1486,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1834,16 +1543,16 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="18">
         <v>24</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <v>7</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24">
+      <c r="F5" s="16"/>
+      <c r="G5" s="19">
         <v>31</v>
       </c>
     </row>
@@ -1851,18 +1560,18 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
         <v>38</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="18">
         <v>7</v>
       </c>
-      <c r="F6" s="21">
-        <v>2</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19">
         <v>47</v>
       </c>
     </row>
@@ -1870,16 +1579,16 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
         <v>10</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="18">
         <v>7</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="24">
+      <c r="F7" s="16"/>
+      <c r="G7" s="19">
         <v>17</v>
       </c>
     </row>
@@ -1887,20 +1596,20 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18">
         <v>10</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="18">
         <v>18</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="18">
         <v>7</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>6</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="19">
         <v>41</v>
       </c>
     </row>
@@ -1908,20 +1617,20 @@
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="18">
         <v>16</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="18">
         <v>5</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <v>7</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="19">
         <v>29</v>
       </c>
     </row>
@@ -1929,22 +1638,22 @@
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="17">
         <v>40</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="17">
         <v>15</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="17">
         <v>66</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="17">
         <v>35</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="17">
         <v>9</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="17">
         <v>165</v>
       </c>
     </row>
@@ -1961,10 +1670,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2005,7 +1714,7 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2022,7 +1731,7 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2037,7 +1746,7 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -2052,7 +1761,7 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -2067,7 +1776,7 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2082,7 +1791,7 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2099,7 +1808,7 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2451,7 +2160,7 @@
       <c r="D31" s="2">
         <v>45307</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2468,7 +2177,7 @@
       <c r="D32" s="2">
         <v>45307</v>
       </c>
-      <c r="E32" s="19"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -2483,7 +2192,7 @@
       <c r="D33" s="2">
         <v>45307</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -2498,7 +2207,7 @@
       <c r="D34" s="2">
         <v>45307</v>
       </c>
-      <c r="E34" s="19"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -2513,7 +2222,7 @@
       <c r="D35" s="2">
         <v>45307</v>
       </c>
-      <c r="E35" s="19"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -2619,7 +2328,7 @@
       <c r="D42" s="4">
         <v>45308</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="24" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2636,7 +2345,7 @@
       <c r="D43" s="4">
         <v>45309</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -2651,7 +2360,7 @@
       <c r="D44" s="4">
         <v>45310</v>
       </c>
-      <c r="E44" s="20"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -2755,7 +2464,7 @@
       <c r="D51" s="4">
         <v>45311</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2772,7 +2481,7 @@
       <c r="D52" s="4">
         <v>45312</v>
       </c>
-      <c r="E52" s="20"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -2815,7 +2524,7 @@
       <c r="D55" s="4">
         <v>45313</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="24" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2832,7 +2541,7 @@
       <c r="D56" s="4">
         <v>45313</v>
       </c>
-      <c r="E56" s="20"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -2847,7 +2556,7 @@
       <c r="D57" s="4">
         <v>45313</v>
       </c>
-      <c r="E57" s="20"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -2862,7 +2571,7 @@
       <c r="D58" s="4">
         <v>45313</v>
       </c>
-      <c r="E58" s="20"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -2877,7 +2586,7 @@
       <c r="D59" s="4">
         <v>45313</v>
       </c>
-      <c r="E59" s="20"/>
+      <c r="E59" s="24"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -3026,6 +2735,23 @@
       </c>
       <c r="D69" s="4">
         <v>45316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="1">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="4">
+        <v>45317</v>
+      </c>
+      <c r="E70" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +2765,7 @@
     <mergeCell ref="E51:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF02E1-85D3-445B-9533-71393E6F7533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ECCCAD-734B-437E-A0C4-2E986BAFB68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="32" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="41">
   <si>
     <t>NAME</t>
   </si>
@@ -327,10 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -346,11 +342,897 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="185">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -358,6 +1240,153 @@
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -520,9 +1549,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45316.835720254632" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="68" xr:uid="{681048AF-4867-47E9-944B-04B23941D069}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45320.569598263886" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="98" xr:uid="{B582CEF0-1575-4F48-8547-55F50FF6D43B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E69" sheet="DATA"/>
+    <worksheetSource ref="A1:E99" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -547,7 +1576,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-26T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-30T00:00:00"/>
     </cacheField>
     <cacheField name="DETAILS" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -562,7 +1591,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="68">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="98">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -1039,11 +2068,221 @@
     <d v="2024-01-25T00:00:00"/>
     <m/>
   </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-25T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-25T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-25T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-25T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-26T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-26T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-26T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-26T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-26T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="3"/>
+    <d v="2024-01-26T00:00:00"/>
+    <s v="Fixen stuff, graphs, "/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="2"/>
+    <d v="2024-01-26T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="3"/>
+    <d v="2024-01-26T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="3"/>
+    <d v="2024-01-26T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <x v="2"/>
+    <d v="2024-01-26T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="4"/>
+    <d v="2024-01-27T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <d v="2024-01-27T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="4"/>
+    <d v="2024-01-27T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <d v="2024-01-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <d v="2024-01-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="4"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="3"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="2"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06ACA37D-222D-4B93-B551-8CD798EEFAA0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAE0B91F-64A5-48C5-B0C4-383E4141DD21}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1120,65 +2359,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="23">
+    <format dxfId="184">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="182">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="181">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="180">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="179">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="178">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="176">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="175">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="174">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="173">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="172">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="171">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="170">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1187,7 +2426,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="169">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1196,14 +2435,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="168">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="167">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1213,7 +2452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="166">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1223,7 +2462,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="165">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1233,7 +2472,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="164">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1243,14 +2482,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="163">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="162">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1470,40 +2709,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1516,7 +2756,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1539,122 +2779,124 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18">
-        <v>24</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18">
-        <v>7</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="23">
+        <v>32</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23">
+        <v>13</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18">
-        <v>38</v>
-      </c>
-      <c r="E6" s="18">
-        <v>7</v>
-      </c>
-      <c r="F6" s="16">
-        <v>2</v>
-      </c>
-      <c r="G6" s="19">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23">
+        <v>44</v>
+      </c>
+      <c r="E6" s="23">
+        <v>11</v>
+      </c>
+      <c r="F6" s="21">
+        <v>2</v>
+      </c>
+      <c r="G6" s="24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18">
-        <v>10</v>
-      </c>
-      <c r="E7" s="18">
-        <v>7</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
+        <v>15</v>
+      </c>
+      <c r="E7" s="23">
+        <v>13</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3</v>
+      </c>
+      <c r="G7" s="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23">
         <v>10</v>
       </c>
-      <c r="D8" s="18">
-        <v>18</v>
-      </c>
-      <c r="E8" s="18">
-        <v>7</v>
-      </c>
-      <c r="F8" s="16">
-        <v>6</v>
-      </c>
-      <c r="G8" s="19">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="23">
+        <v>23</v>
+      </c>
+      <c r="E8" s="23">
+        <v>13</v>
+      </c>
+      <c r="F8" s="21">
+        <v>10</v>
+      </c>
+      <c r="G8" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18">
-        <v>16</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="23">
+        <v>26</v>
+      </c>
+      <c r="C9" s="23">
         <v>5</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18">
-        <v>7</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
+        <v>13</v>
+      </c>
+      <c r="F9" s="21">
+        <v>5</v>
+      </c>
+      <c r="G9" s="24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17">
-        <v>40</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="22">
+        <v>58</v>
+      </c>
+      <c r="C10" s="22">
         <v>15</v>
       </c>
-      <c r="D10" s="17">
-        <v>66</v>
-      </c>
-      <c r="E10" s="17">
-        <v>35</v>
-      </c>
-      <c r="F10" s="17">
-        <v>9</v>
-      </c>
-      <c r="G10" s="17">
-        <v>165</v>
+      <c r="D10" s="22">
+        <v>82</v>
+      </c>
+      <c r="E10" s="22">
+        <v>63</v>
+      </c>
+      <c r="F10" s="22">
+        <v>20</v>
+      </c>
+      <c r="G10" s="22">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1670,21 +2912,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +2943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1714,11 +2956,11 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1731,9 +2973,9 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1746,9 +2988,9 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1761,9 +3003,9 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1776,9 +3018,9 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1791,11 +3033,11 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1808,9 +3050,9 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1824,7 +3066,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1838,7 +3080,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1855,7 +3097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1869,7 +3111,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1886,7 +3128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +3142,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1914,7 +3156,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1928,7 +3170,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1942,7 +3184,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1956,7 +3198,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1973,7 +3215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +3232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +3249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2022,7 +3264,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2039,7 +3281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2053,7 +3295,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +3309,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -2081,7 +3323,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +3340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2115,7 +3357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2130,7 +3372,7 @@
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +3389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2160,11 +3402,11 @@
       <c r="D31" s="2">
         <v>45307</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -2177,9 +3419,9 @@
       <c r="D32" s="2">
         <v>45307</v>
       </c>
-      <c r="E32" s="23"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2192,9 +3434,9 @@
       <c r="D33" s="2">
         <v>45307</v>
       </c>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2207,9 +3449,9 @@
       <c r="D34" s="2">
         <v>45307</v>
       </c>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2222,9 +3464,9 @@
       <c r="D35" s="2">
         <v>45307</v>
       </c>
-      <c r="E35" s="23"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +3481,7 @@
       </c>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2256,7 +3498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2273,7 +3515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2287,7 +3529,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2301,7 +3543,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2315,7 +3557,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2328,11 +3570,11 @@
       <c r="D42" s="4">
         <v>45308</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2345,9 +3587,9 @@
       <c r="D43" s="4">
         <v>45309</v>
       </c>
-      <c r="E43" s="24"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2360,9 +3602,9 @@
       <c r="D44" s="4">
         <v>45310</v>
       </c>
-      <c r="E44" s="24"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -2377,7 +3619,7 @@
       </c>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -2392,7 +3634,7 @@
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -2406,7 +3648,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -2423,7 +3665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -2437,7 +3679,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -2451,7 +3693,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -2464,11 +3706,11 @@
       <c r="D51" s="4">
         <v>45311</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -2481,9 +3723,9 @@
       <c r="D52" s="4">
         <v>45312</v>
       </c>
-      <c r="E52" s="24"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2497,7 +3739,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -2511,7 +3753,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -2524,11 +3766,11 @@
       <c r="D55" s="4">
         <v>45313</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -2541,9 +3783,9 @@
       <c r="D56" s="4">
         <v>45313</v>
       </c>
-      <c r="E56" s="24"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -2556,9 +3798,9 @@
       <c r="D57" s="4">
         <v>45313</v>
       </c>
-      <c r="E57" s="24"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -2571,9 +3813,9 @@
       <c r="D58" s="4">
         <v>45313</v>
       </c>
-      <c r="E58" s="24"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -2586,9 +3828,9 @@
       <c r="D59" s="4">
         <v>45313</v>
       </c>
-      <c r="E59" s="24"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="20"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -2602,7 +3844,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -2616,7 +3858,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -2630,7 +3872,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -2644,7 +3886,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -2661,7 +3903,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -2678,7 +3920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -2692,7 +3934,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2706,7 +3948,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -2723,7 +3965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2737,21 +3979,427 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="4">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="4">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="4">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="4">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="4">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B78" s="1">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D78" s="4">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="1">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D79" s="4">
         <v>45317</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E79" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="4">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="4">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="4">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="4">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="1">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="4">
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="4">
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="4">
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="4">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="4">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>4</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="4">
+        <v>45320</v>
       </c>
     </row>
   </sheetData>
@@ -2765,7 +4413,7 @@
     <mergeCell ref="E51:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="138" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ECCCAD-734B-437E-A0C4-2E986BAFB68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A011BD-8A24-44F5-B087-456E57D9D876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATA!$A$1:$E$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATA!$A$1:$E$103</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId3"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="40">
   <si>
     <t>NAME</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Charlotte</t>
   </si>
   <si>
-    <t>Presentation</t>
-  </si>
-  <si>
     <t>Presentation for Thursday 11/01/24</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
   </si>
   <si>
     <t>Finished simulation for both queues</t>
-  </si>
-  <si>
-    <t>Report</t>
   </si>
   <si>
     <t>Start with the structure of the report, have a basic idea what we will write about</t>
@@ -150,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fixen stuff, graphs, </t>
+  </si>
+  <si>
+    <t>Presentation\Report</t>
   </si>
 </sst>
 </file>
@@ -350,595 +347,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="185">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
+  <dxfs count="93">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1549,9 +958,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45320.569598263886" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="98" xr:uid="{B582CEF0-1575-4F48-8547-55F50FF6D43B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45320.625547800926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="102" xr:uid="{B582CEF0-1575-4F48-8547-55F50FF6D43B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E99" sheet="DATA"/>
+    <worksheetSource ref="A1:E103" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -1567,12 +976,13 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
     </cacheField>
     <cacheField name="JOB DESCRIPTION" numFmtId="0">
-      <sharedItems count="5">
+      <sharedItems count="6">
         <s v="Team Meeting"/>
-        <s v="Presentation"/>
+        <s v="Presentation\Report"/>
         <s v="Interface"/>
         <s v="Simulation"/>
-        <s v="Report"/>
+        <s v="Presentation" u="1"/>
+        <s v="Report" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DATE" numFmtId="14">
@@ -1591,7 +1001,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="98">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="102">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -1728,7 +1138,7 @@
   <r>
     <x v="0"/>
     <n v="1"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-11T00:00:00"/>
     <s v="Start with the structure of the report, have a basic idea what we will write about"/>
   </r>
@@ -1791,7 +1201,7 @@
   <r>
     <x v="0"/>
     <n v="2"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-15T00:00:00"/>
     <s v="Finallizing the project plan"/>
   </r>
@@ -1840,7 +1250,7 @@
   <r>
     <x v="0"/>
     <n v="3"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-16T00:00:00"/>
     <s v="Project plan and Final report"/>
   </r>
@@ -1861,7 +1271,7 @@
   <r>
     <x v="3"/>
     <n v="1"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-17T00:00:00"/>
     <m/>
   </r>
@@ -2022,7 +1432,7 @@
   <r>
     <x v="4"/>
     <n v="1"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-22T00:00:00"/>
     <m/>
   </r>
@@ -2036,7 +1446,7 @@
   <r>
     <x v="4"/>
     <n v="1"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-23T00:00:00"/>
     <s v="Made the picture that shows are queue"/>
   </r>
@@ -2064,6 +1474,13 @@
   <r>
     <x v="0"/>
     <n v="3"/>
+    <x v="3"/>
+    <d v="2024-01-25T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
     <x v="3"/>
     <d v="2024-01-25T00:00:00"/>
     <m/>
@@ -2169,28 +1586,35 @@
   <r>
     <x v="2"/>
     <n v="3"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-27T00:00:00"/>
     <m/>
   </r>
   <r>
     <x v="0"/>
     <n v="1"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-27T00:00:00"/>
     <m/>
   </r>
   <r>
     <x v="3"/>
     <n v="3"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-27T00:00:00"/>
     <m/>
   </r>
   <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="1"/>
+    <d v="2024-01-27T00:00:00"/>
+    <m/>
+  </r>
+  <r>
     <x v="0"/>
     <n v="1"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-28T00:00:00"/>
     <m/>
   </r>
@@ -2202,6 +1626,13 @@
     <m/>
   </r>
   <r>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="2"/>
+    <d v="2024-01-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
     <x v="0"/>
     <n v="2"/>
     <x v="0"/>
@@ -2246,14 +1677,14 @@
   <r>
     <x v="0"/>
     <n v="2"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-29T00:00:00"/>
     <m/>
   </r>
   <r>
     <x v="3"/>
     <n v="1"/>
-    <x v="4"/>
+    <x v="1"/>
     <d v="2024-01-29T00:00:00"/>
     <m/>
   </r>
@@ -2266,8 +1697,15 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="2"/>
-    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="1"/>
     <d v="2024-01-29T00:00:00"/>
     <m/>
   </r>
@@ -2282,8 +1720,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAE0B91F-64A5-48C5-B0C4-383E4141DD21}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAE0B91F-64A5-48C5-B0C4-383E4141DD21}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -2297,12 +1735,13 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="2"/>
-        <item x="1"/>
+        <item m="1" x="4"/>
         <item x="3"/>
         <item x="0"/>
-        <item x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2335,12 +1774,9 @@
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="5">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -2349,7 +1785,7 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -2359,65 +1795,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="184">
+    <format dxfId="92">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="183">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="90">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="89">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="88">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="87">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="177">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="84">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="83">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="174">
+    <format dxfId="82">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="81">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="171">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="78">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2426,7 +1862,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="169">
+    <format dxfId="77">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2435,14 +1871,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="168">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="167">
+    <format dxfId="75">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -2452,7 +1888,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="166">
+    <format dxfId="74">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -2462,7 +1898,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="165">
+    <format dxfId="73">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -2472,7 +1908,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="164">
+    <format dxfId="72">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -2482,14 +1918,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="163">
+    <format dxfId="71">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="162">
+    <format dxfId="70">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -2707,9 +2143,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34747242-76F0-4A63-BBEC-F50C6C5364CB}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2717,17 +2153,16 @@
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2735,7 +2170,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2743,160 +2178,148 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="23">
-        <v>32</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23">
+        <v>36</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
         <v>13</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="C6" s="23">
+        <v>44</v>
+      </c>
       <c r="D6" s="23">
-        <v>44</v>
-      </c>
-      <c r="E6" s="23">
         <v>11</v>
       </c>
-      <c r="F6" s="21">
-        <v>2</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="E6" s="21">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="23">
+        <v>14</v>
+      </c>
       <c r="D7" s="23">
-        <v>15</v>
-      </c>
-      <c r="E7" s="23">
         <v>13</v>
       </c>
-      <c r="F7" s="21">
-        <v>3</v>
-      </c>
-      <c r="G7" s="24">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="21">
+        <v>5</v>
+      </c>
+      <c r="F7" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D8" s="23">
-        <v>23</v>
-      </c>
-      <c r="E8" s="23">
         <v>13</v>
       </c>
-      <c r="F8" s="21">
-        <v>10</v>
-      </c>
-      <c r="G8" s="24">
+      <c r="E8" s="21">
+        <v>20</v>
+      </c>
+      <c r="F8" s="24">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="23">
         <v>26</v>
       </c>
-      <c r="C9" s="23">
-        <v>5</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
         <v>13</v>
       </c>
-      <c r="F9" s="21">
-        <v>5</v>
-      </c>
-      <c r="G9" s="24">
+      <c r="E9" s="21">
+        <v>10</v>
+      </c>
+      <c r="F9" s="24">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="22">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C10" s="22">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D10" s="22">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E10" s="22">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F10" s="22">
-        <v>20</v>
-      </c>
-      <c r="G10" s="22">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2912,10 +2335,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3028,13 +2451,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2">
         <v>45301</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3045,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>45301</v>
@@ -3060,7 +2483,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>45301</v>
@@ -3074,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>45301</v>
@@ -3088,13 +2511,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
         <v>45301</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>45301</v>
@@ -3119,13 +2542,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4">
         <v>45301</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3206,13 +2629,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="4">
         <v>45302</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3223,13 +2646,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4">
         <v>45302</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3240,13 +2663,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4">
         <v>45302</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3257,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="4">
         <v>45303</v>
@@ -3272,13 +2695,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4">
         <v>45303</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3289,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4">
         <v>45304</v>
@@ -3303,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4">
         <v>45305</v>
@@ -3317,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4">
         <v>45305</v>
@@ -3331,13 +2754,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4">
         <v>45305</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3348,13 +2771,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="4">
         <v>45306</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3365,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4">
         <v>45306</v>
@@ -3380,13 +2803,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4">
         <v>45306</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3403,7 +2826,7 @@
         <v>45307</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3474,7 +2897,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2">
         <v>45307</v>
@@ -3489,13 +2912,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4">
         <v>45307</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3506,13 +2929,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="4">
         <v>45307</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3523,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="4">
         <v>45307</v>
@@ -3537,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D40" s="4">
         <v>45308</v>
@@ -3551,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="4">
         <v>45308</v>
@@ -3565,13 +2988,13 @@
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="4">
         <v>45308</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3582,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4">
         <v>45309</v>
@@ -3597,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="4">
         <v>45310</v>
@@ -3612,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="4">
         <v>45309</v>
@@ -3627,7 +3050,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4">
         <v>45309</v>
@@ -3642,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4">
         <v>45309</v>
@@ -3656,13 +3079,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="4">
         <v>45310</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3673,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4">
         <v>45310</v>
@@ -3687,7 +3110,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="4">
         <v>45310</v>
@@ -3701,13 +3124,13 @@
         <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" s="4">
         <v>45311</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3718,7 +3141,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="4">
         <v>45312</v>
@@ -3733,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D53" s="4">
         <v>45312</v>
@@ -3747,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="4">
         <v>45312</v>
@@ -3767,7 +3190,7 @@
         <v>45313</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3838,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="4">
         <v>45313</v>
@@ -3852,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D61" s="4">
         <v>45314</v>
@@ -3866,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D62" s="4">
         <v>45314</v>
@@ -3880,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D63" s="4">
         <v>45313</v>
@@ -3894,13 +3317,13 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" s="4">
         <v>45311</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3911,13 +3334,13 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D65" s="4">
         <v>45314</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3928,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="4">
         <v>45315</v>
@@ -3942,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D67" s="4">
         <v>45315</v>
@@ -3956,13 +3379,13 @@
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" s="4">
         <v>45316</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,7 +3396,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="4">
         <v>45316</v>
@@ -3981,13 +3404,13 @@
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1">
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D70" s="4">
         <v>45316</v>
@@ -3995,7 +3418,7 @@
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1">
         <v>2</v>
@@ -4009,7 +3432,7 @@
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
@@ -4023,7 +3446,7 @@
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
@@ -4037,7 +3460,7 @@
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1">
         <v>2</v>
@@ -4046,12 +3469,12 @@
         <v>6</v>
       </c>
       <c r="D74" s="4">
-        <v>45317</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B75" s="1">
         <v>2</v>
@@ -4065,7 +3488,7 @@
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -4079,7 +3502,7 @@
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" s="1">
         <v>2</v>
@@ -4093,7 +3516,7 @@
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -4110,24 +3533,21 @@
         <v>11</v>
       </c>
       <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D79" s="4">
         <v>45317</v>
       </c>
-      <c r="E79" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B80" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
@@ -4135,16 +3555,19 @@
       <c r="D80" s="4">
         <v>45317</v>
       </c>
+      <c r="E80" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B81" s="1">
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="4">
         <v>45317</v>
@@ -4152,13 +3575,13 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B82" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" s="4">
         <v>45317</v>
@@ -4166,10 +3589,10 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>14</v>
@@ -4180,27 +3603,27 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D84" s="4">
-        <v>45318</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D85" s="4">
         <v>45318</v>
@@ -4208,13 +3631,13 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B86" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D86" s="4">
         <v>45318</v>
@@ -4222,30 +3645,30 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B87" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D87" s="4">
-        <v>45319</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B88" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D88" s="4">
-        <v>45319</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4253,46 +3676,46 @@
         <v>5</v>
       </c>
       <c r="B89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D89" s="4">
-        <v>45320</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B90" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D90" s="4">
-        <v>45320</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D91" s="4">
-        <v>45320</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B92" s="1">
         <v>2</v>
@@ -4306,7 +3729,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B93" s="1">
         <v>2</v>
@@ -4320,13 +3743,13 @@
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D94" s="4">
         <v>45320</v>
@@ -4334,13 +3757,13 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D95" s="4">
         <v>45320</v>
@@ -4348,13 +3771,13 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D96" s="4">
         <v>45320</v>
@@ -4362,10 +3785,10 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B97" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>14</v>
@@ -4376,13 +3799,13 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B98" s="1">
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D98" s="4">
         <v>45320</v>
@@ -4390,20 +3813,76 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B99" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D99" s="4">
         <v>45320</v>
       </c>
     </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="4">
+        <v>45320</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="6">
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E7:E8"/>
@@ -4413,7 +3892,7 @@
     <mergeCell ref="E51:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="138" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A011BD-8A24-44F5-B087-456E57D9D876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F80007F-113A-4564-84E3-5C96A0DCC8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="41">
   <si>
     <t>NAME</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Presentation\Report</t>
+  </si>
+  <si>
+    <t>verification</t>
   </si>
 </sst>
 </file>
@@ -324,6 +327,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,309 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -649,153 +358,6 @@
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1720,7 +1282,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAE0B91F-64A5-48C5-B0C4-383E4141DD21}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAE0B91F-64A5-48C5-B0C4-383E4141DD21}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1795,65 +1357,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="92">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="21">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="20">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="19">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="15">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="14">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="12">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="9">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1862,7 +1424,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="8">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1871,14 +1433,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1888,7 +1450,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1898,7 +1460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1908,7 +1470,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1918,14 +1480,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="2">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -2149,36 +1711,36 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +1752,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -2210,115 +1772,115 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="18">
         <v>36</v>
       </c>
-      <c r="C5" s="23">
-        <v>2</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18">
         <v>13</v>
       </c>
-      <c r="E5" s="21">
-        <v>2</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18">
         <v>44</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="18">
         <v>11</v>
       </c>
-      <c r="E6" s="21">
-        <v>2</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="19">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18">
         <v>14</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="18">
         <v>13</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <v>5</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="19">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18">
         <v>23</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="18">
         <v>13</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <v>20</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="19">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="18">
         <v>26</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18">
         <v>13</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="16">
         <v>10</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="19">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="17">
         <v>62</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="17">
         <v>83</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="17">
         <v>63</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="17">
         <v>39</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="17">
         <v>247</v>
       </c>
     </row>
@@ -2335,21 +1897,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2379,11 +1941,11 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2396,9 +1958,9 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2411,9 +1973,9 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2426,9 +1988,9 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2441,9 +2003,9 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2456,11 +2018,11 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2473,9 +2035,9 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2489,7 +2051,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2503,7 +2065,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2520,7 +2082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +2096,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2551,7 +2113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2565,7 +2127,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2579,7 +2141,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +2155,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -2607,7 +2169,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2621,7 +2183,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2638,7 +2200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2655,7 +2217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +2234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2687,7 +2249,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2704,7 +2266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2718,7 +2280,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2732,7 +2294,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -2746,7 +2308,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -2763,7 +2325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2780,7 +2342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2795,7 +2357,7 @@
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2825,11 +2387,11 @@
       <c r="D31" s="2">
         <v>45307</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -2842,9 +2404,9 @@
       <c r="D32" s="2">
         <v>45307</v>
       </c>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2857,9 +2419,9 @@
       <c r="D33" s="2">
         <v>45307</v>
       </c>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2872,9 +2434,9 @@
       <c r="D34" s="2">
         <v>45307</v>
       </c>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2887,9 +2449,9 @@
       <c r="D35" s="2">
         <v>45307</v>
       </c>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -2904,7 +2466,7 @@
       </c>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2938,7 +2500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2952,7 +2514,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2966,7 +2528,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2980,7 +2542,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2993,11 +2555,11 @@
       <c r="D42" s="4">
         <v>45308</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3010,9 +2572,9 @@
       <c r="D43" s="4">
         <v>45309</v>
       </c>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3025,9 +2587,9 @@
       <c r="D44" s="4">
         <v>45310</v>
       </c>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -3042,7 +2604,7 @@
       </c>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -3057,7 +2619,7 @@
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +2633,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -3088,7 +2650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -3102,7 +2664,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -3116,7 +2678,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -3129,11 +2691,11 @@
       <c r="D51" s="4">
         <v>45311</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -3146,9 +2708,9 @@
       <c r="D52" s="4">
         <v>45312</v>
       </c>
-      <c r="E52" s="20"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -3162,7 +2724,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -3176,7 +2738,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -3189,11 +2751,11 @@
       <c r="D55" s="4">
         <v>45313</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -3206,9 +2768,9 @@
       <c r="D56" s="4">
         <v>45313</v>
       </c>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -3221,9 +2783,9 @@
       <c r="D57" s="4">
         <v>45313</v>
       </c>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -3236,9 +2798,9 @@
       <c r="D58" s="4">
         <v>45313</v>
       </c>
-      <c r="E58" s="20"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -3251,9 +2813,9 @@
       <c r="D59" s="4">
         <v>45313</v>
       </c>
-      <c r="E59" s="20"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -3267,7 +2829,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -3281,7 +2843,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -3295,7 +2857,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -3309,7 +2871,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -3326,7 +2888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -3343,7 +2905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +2919,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -3371,7 +2933,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -3388,7 +2950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -3402,7 +2964,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -3416,7 +2978,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -3430,7 +2992,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -3444,7 +3006,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -3458,7 +3020,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3472,7 +3034,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -3486,7 +3048,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -3500,7 +3062,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -3514,7 +3076,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -3528,7 +3090,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -3542,7 +3104,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -3559,7 +3121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -3573,7 +3135,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -3587,7 +3149,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -3601,7 +3163,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -3615,7 +3177,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -3629,7 +3191,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -3643,7 +3205,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -3657,7 +3219,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -3671,7 +3233,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -3685,7 +3247,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -3699,7 +3261,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -3713,7 +3275,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -3727,7 +3289,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -3741,7 +3303,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -3755,7 +3317,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
@@ -3769,7 +3331,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -3783,7 +3345,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
@@ -3797,7 +3359,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -3811,7 +3373,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
@@ -3825,7 +3387,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
@@ -3839,7 +3401,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -3853,7 +3415,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -3867,7 +3429,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -3879,6 +3441,23 @@
       </c>
       <c r="D103" s="4">
         <v>45320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="1">
+        <v>8</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="4">
+        <v>45320</v>
+      </c>
+      <c r="E104" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3471,7 @@
     <mergeCell ref="E51:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F80007F-113A-4564-84E3-5C96A0DCC8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3BED58-17D3-44DC-A588-55A6096FED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="41">
   <si>
     <t>NAME</t>
   </si>
@@ -327,10 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -346,11 +342,302 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -364,13 +651,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
       </border>
     </dxf>
     <dxf>
@@ -520,9 +800,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45320.625547800926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="102" xr:uid="{B582CEF0-1575-4F48-8547-55F50FF6D43B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Giannakakos Panagiotis" refreshedDate="45322.695657523145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="124" xr:uid="{A049CFC6-9A03-426C-AFE9-C81F86A584C6}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E103" sheet="DATA"/>
+    <worksheetSource ref="A1:E125" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="NAME" numFmtId="0">
@@ -535,20 +815,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="HOURS" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
     </cacheField>
     <cacheField name="JOB DESCRIPTION" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems count="4">
         <s v="Team Meeting"/>
         <s v="Presentation\Report"/>
         <s v="Interface"/>
         <s v="Simulation"/>
-        <s v="Presentation" u="1"/>
-        <s v="Report" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-01-30T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-10T00:00:00" maxDate="2024-02-01T00:00:00"/>
     </cacheField>
     <cacheField name="DETAILS" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -563,7 +841,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="102">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="124">
   <r>
     <x v="0"/>
     <n v="2"/>
@@ -1231,35 +1509,35 @@
   </r>
   <r>
     <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <n v="1"/>
-    <x v="3"/>
+    <x v="1"/>
     <d v="2024-01-29T00:00:00"/>
     <m/>
   </r>
   <r>
-    <x v="0"/>
-    <n v="2"/>
-    <x v="1"/>
-    <d v="2024-01-29T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-    <x v="1"/>
-    <d v="2024-01-29T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="3"/>
+    <x v="3"/>
+    <n v="5"/>
     <x v="2"/>
     <d v="2024-01-29T00:00:00"/>
     <m/>
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <n v="3"/>
     <x v="3"/>
     <d v="2024-01-29T00:00:00"/>
     <m/>
@@ -1276,13 +1554,167 @@
     <n v="4"/>
     <x v="2"/>
     <d v="2024-01-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="3"/>
+    <d v="2024-01-29T00:00:00"/>
+    <s v="verification"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <d v="2024-01-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="3"/>
+    <d v="2024-01-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <d v="2024-01-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <d v="2024-01-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="2"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4"/>
+    <x v="1"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <x v="2"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="1"/>
+    <d v="2024-01-31T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <d v="2024-01-31T00:00:00"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAE0B91F-64A5-48C5-B0C4-383E4141DD21}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{922B15C5-37B0-4B28-B263-5BD33C6B192D}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1297,12 +1729,10 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="7">
+      <items count="5">
         <item x="2"/>
-        <item m="1" x="4"/>
         <item x="3"/>
         <item x="0"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -1341,13 +1771,13 @@
       <x/>
     </i>
     <i>
+      <x v="1"/>
+    </i>
+    <i>
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -1356,66 +1786,66 @@
   <dataFields count="1">
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="23">
-    <format dxfId="23">
+  <formats count="22">
+    <format dxfId="67">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="65">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="64">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="63">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="62">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="59">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="58">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="57">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="56">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="53">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1424,7 +1854,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="52">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1433,14 +1863,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="50">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1450,7 +1880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1460,7 +1890,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1470,24 +1900,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="0"/>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
+    <format dxfId="47">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="46">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1711,36 +2131,36 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1752,7 +2172,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1772,116 +2192,116 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18">
-        <v>36</v>
-      </c>
-      <c r="C5" s="18">
-        <v>2</v>
-      </c>
-      <c r="D5" s="18">
-        <v>13</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2</v>
-      </c>
-      <c r="F5" s="19">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="23">
+        <v>45</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18">
-        <v>44</v>
-      </c>
-      <c r="D6" s="18">
-        <v>11</v>
-      </c>
-      <c r="E6" s="16">
-        <v>2</v>
-      </c>
-      <c r="F6" s="19">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23">
+        <v>52</v>
+      </c>
+      <c r="D6" s="23">
+        <v>15</v>
+      </c>
+      <c r="E6" s="21">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18">
-        <v>14</v>
-      </c>
-      <c r="D7" s="18">
-        <v>13</v>
-      </c>
-      <c r="E7" s="16">
-        <v>5</v>
-      </c>
-      <c r="F7" s="19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23">
+        <v>20</v>
+      </c>
+      <c r="D7" s="23">
+        <v>17</v>
+      </c>
+      <c r="E7" s="21">
+        <v>9</v>
+      </c>
+      <c r="F7" s="24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18">
-        <v>23</v>
-      </c>
-      <c r="D8" s="18">
-        <v>13</v>
-      </c>
-      <c r="E8" s="16">
-        <v>20</v>
-      </c>
-      <c r="F8" s="19">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23">
+        <v>31</v>
+      </c>
+      <c r="D8" s="23">
+        <v>17</v>
+      </c>
+      <c r="E8" s="21">
+        <v>24</v>
+      </c>
+      <c r="F8" s="24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18">
-        <v>26</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18">
-        <v>13</v>
-      </c>
-      <c r="E9" s="16">
-        <v>10</v>
-      </c>
-      <c r="F9" s="19">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="23">
+        <v>35</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
+        <v>17</v>
+      </c>
+      <c r="E9" s="21">
+        <v>12</v>
+      </c>
+      <c r="F9" s="24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17">
-        <v>62</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="22">
+        <v>80</v>
+      </c>
+      <c r="C10" s="22">
+        <v>105</v>
+      </c>
+      <c r="D10" s="22">
         <v>83</v>
       </c>
-      <c r="D10" s="17">
-        <v>63</v>
-      </c>
-      <c r="E10" s="17">
-        <v>39</v>
-      </c>
-      <c r="F10" s="17">
-        <v>247</v>
+      <c r="E10" s="22">
+        <v>49</v>
+      </c>
+      <c r="F10" s="22">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1897,21 +2317,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1928,7 +2348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1941,11 +2361,11 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1958,9 +2378,9 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1973,9 +2393,9 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1988,9 +2408,9 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2003,9 +2423,9 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2018,11 +2438,11 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2035,9 +2455,9 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2051,7 +2471,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2485,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2082,7 +2502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2096,7 +2516,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2113,7 +2533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2127,7 +2547,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2141,7 +2561,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2155,7 +2575,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -2169,7 +2589,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2183,7 +2603,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2200,7 +2620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2217,7 +2637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2234,7 +2654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2249,7 +2669,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2266,7 +2686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2280,7 +2700,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2294,7 +2714,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -2308,7 +2728,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -2325,7 +2745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2342,7 +2762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2777,7 @@
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2374,7 +2794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2387,11 +2807,11 @@
       <c r="D31" s="2">
         <v>45307</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -2404,9 +2824,9 @@
       <c r="D32" s="2">
         <v>45307</v>
       </c>
-      <c r="E32" s="23"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2419,9 +2839,9 @@
       <c r="D33" s="2">
         <v>45307</v>
       </c>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2434,9 +2854,9 @@
       <c r="D34" s="2">
         <v>45307</v>
       </c>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2449,9 +2869,9 @@
       <c r="D35" s="2">
         <v>45307</v>
       </c>
-      <c r="E35" s="23"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -2466,7 +2886,7 @@
       </c>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2500,7 +2920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2514,7 +2934,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2528,7 +2948,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2962,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2555,11 +2975,11 @@
       <c r="D42" s="4">
         <v>45308</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2572,9 +2992,9 @@
       <c r="D43" s="4">
         <v>45309</v>
       </c>
-      <c r="E43" s="24"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2587,9 +3007,9 @@
       <c r="D44" s="4">
         <v>45310</v>
       </c>
-      <c r="E44" s="24"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -2604,7 +3024,7 @@
       </c>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -2619,7 +3039,7 @@
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -2633,7 +3053,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -2650,7 +3070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -2664,7 +3084,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -2678,7 +3098,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -2691,11 +3111,11 @@
       <c r="D51" s="4">
         <v>45311</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -2708,9 +3128,9 @@
       <c r="D52" s="4">
         <v>45312</v>
       </c>
-      <c r="E52" s="24"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2724,7 +3144,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -2738,7 +3158,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -2751,11 +3171,11 @@
       <c r="D55" s="4">
         <v>45313</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -2768,9 +3188,9 @@
       <c r="D56" s="4">
         <v>45313</v>
       </c>
-      <c r="E56" s="24"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -2783,9 +3203,9 @@
       <c r="D57" s="4">
         <v>45313</v>
       </c>
-      <c r="E57" s="24"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -2798,9 +3218,9 @@
       <c r="D58" s="4">
         <v>45313</v>
       </c>
-      <c r="E58" s="24"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -2813,9 +3233,9 @@
       <c r="D59" s="4">
         <v>45313</v>
       </c>
-      <c r="E59" s="24"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="20"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -2829,7 +3249,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -2843,7 +3263,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -2857,7 +3277,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -2871,7 +3291,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -2888,7 +3308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -2905,7 +3325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -2919,7 +3339,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2933,7 +3353,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -2950,7 +3370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2964,7 +3384,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -2978,7 +3398,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -2992,7 +3412,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -3006,7 +3426,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -3020,7 +3440,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3034,7 +3454,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -3048,7 +3468,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -3062,7 +3482,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -3076,7 +3496,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -3090,7 +3510,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -3104,7 +3524,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -3121,7 +3541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -3135,7 +3555,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -3149,7 +3569,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -3163,7 +3583,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -3177,7 +3597,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -3191,7 +3611,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -3205,7 +3625,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -3219,7 +3639,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -3233,7 +3653,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -3247,7 +3667,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -3261,7 +3681,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -3275,7 +3695,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -3289,7 +3709,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -3303,7 +3723,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -3317,7 +3737,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
@@ -3331,7 +3751,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -3345,12 +3765,12 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>14</v>
@@ -3359,12 +3779,12 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>39</v>
@@ -3373,7 +3793,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
@@ -3387,12 +3807,12 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B100" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>13</v>
@@ -3401,12 +3821,12 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B101" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>14</v>
@@ -3415,7 +3835,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -3429,7 +3849,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -3443,7 +3863,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -3459,6 +3879,305 @@
       <c r="E104" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1">
+        <v>3</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="1">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>6</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -3471,7 +4190,7 @@
     <mergeCell ref="E51:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Time schedule (1).xlsx
+++ b/Time schedule (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.giannakakos\Downloads\OBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\VU vakken\OBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3BED58-17D3-44DC-A588-55A6096FED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19848E66-92DF-4575-8798-C017D8779F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="3" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="41">
   <si>
     <t>NAME</t>
   </si>
@@ -327,6 +327,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -342,302 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1714,7 +1427,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{922B15C5-37B0-4B28-B263-5BD33C6B192D}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{922B15C5-37B0-4B28-B263-5BD33C6B192D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1787,65 +1500,65 @@
     <dataField name="Sum of HOURS" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="67">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="20">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="19">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="18">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="14">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="13">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="12">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="8">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1854,7 +1567,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="7">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1863,14 +1576,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1880,7 +1593,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1890,7 +1603,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -1900,14 +1613,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="2">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -2128,39 +1841,39 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2172,7 +1885,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -2192,115 +1905,115 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="18">
         <v>45</v>
       </c>
-      <c r="C5" s="23">
-        <v>2</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18">
         <v>17</v>
       </c>
-      <c r="E5" s="21">
-        <v>2</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18">
         <v>52</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="18">
         <v>15</v>
       </c>
-      <c r="E6" s="21">
-        <v>2</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="19">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18">
         <v>20</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="18">
         <v>17</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <v>9</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="19">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18">
         <v>31</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="18">
         <v>17</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <v>24</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="18">
         <v>35</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18">
         <v>17</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="16">
         <v>12</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="17">
         <v>80</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="17">
         <v>105</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="17">
         <v>83</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="17">
         <v>49</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="17">
         <v>317</v>
       </c>
     </row>
@@ -2317,21 +2030,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2361,11 +2074,11 @@
       <c r="D2" s="2">
         <v>45301</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2378,9 +2091,9 @@
       <c r="D3" s="2">
         <v>45301</v>
       </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2393,9 +2106,9 @@
       <c r="D4" s="2">
         <v>45301</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2408,9 +2121,9 @@
       <c r="D5" s="2">
         <v>45301</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2423,9 +2136,9 @@
       <c r="D6" s="2">
         <v>45301</v>
       </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2438,11 +2151,11 @@
       <c r="D7" s="2">
         <v>45301</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2455,9 +2168,9 @@
       <c r="D8" s="2">
         <v>45301</v>
       </c>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2471,7 +2184,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2485,7 +2198,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2502,7 +2215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2516,7 +2229,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2533,7 +2246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2547,7 +2260,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2561,7 +2274,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2575,7 +2288,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -2589,7 +2302,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2603,7 +2316,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2620,7 +2333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2637,7 +2350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2654,7 +2367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2669,7 +2382,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2686,7 +2399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2700,7 +2413,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2714,7 +2427,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -2728,7 +2441,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -2745,7 +2458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2762,7 +2475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2777,7 +2490,7 @@
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2794,7 +2507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2807,11 +2520,11 @@
       <c r="D31" s="2">
         <v>45307</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -2824,9 +2537,9 @@
       <c r="D32" s="2">
         <v>45307</v>
       </c>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2839,9 +2552,9 @@
       <c r="D33" s="2">
         <v>45307</v>
       </c>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2854,9 +2567,9 @@
       <c r="D34" s="2">
         <v>45307</v>
       </c>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2869,9 +2582,9 @@
       <c r="D35" s="2">
         <v>45307</v>
       </c>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -2886,7 +2599,7 @@
       </c>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2903,7 +2616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2920,7 +2633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2934,7 +2647,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2948,7 +2661,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2962,7 +2675,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2975,11 +2688,11 @@
       <c r="D42" s="4">
         <v>45308</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2992,9 +2705,9 @@
       <c r="D43" s="4">
         <v>45309</v>
       </c>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3007,9 +2720,9 @@
       <c r="D44" s="4">
         <v>45310</v>
       </c>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -3024,7 +2737,7 @@
       </c>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -3039,7 +2752,7 @@
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -3053,7 +2766,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -3070,7 +2783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -3084,7 +2797,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -3098,7 +2811,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -3111,11 +2824,11 @@
       <c r="D51" s="4">
         <v>45311</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -3128,9 +2841,9 @@
       <c r="D52" s="4">
         <v>45312</v>
       </c>
-      <c r="E52" s="20"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -3144,7 +2857,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -3158,7 +2871,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -3171,11 +2884,11 @@
       <c r="D55" s="4">
         <v>45313</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -3188,9 +2901,9 @@
       <c r="D56" s="4">
         <v>45313</v>
       </c>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -3203,9 +2916,9 @@
       <c r="D57" s="4">
         <v>45313</v>
       </c>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -3218,9 +2931,9 @@
       <c r="D58" s="4">
         <v>45313</v>
       </c>
-      <c r="E58" s="20"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -3233,9 +2946,9 @@
       <c r="D59" s="4">
         <v>45313</v>
       </c>
-      <c r="E59" s="20"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -3249,7 +2962,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -3263,7 +2976,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -3277,7 +2990,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -3291,7 +3004,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -3308,7 +3021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -3325,7 +3038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -3339,7 +3052,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -3353,7 +3066,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -3370,7 +3083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -3384,7 +3097,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -3398,7 +3111,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -3412,7 +3125,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -3426,7 +3139,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -3440,7 +3153,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3454,7 +3167,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -3468,7 +3181,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -3482,7 +3195,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -3496,7 +3209,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -3510,7 +3223,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -3524,7 +3237,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -3541,7 +3254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -3555,7 +3268,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -3569,7 +3282,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -3583,7 +3296,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -3597,7 +3310,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3324,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -3625,7 +3338,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -3639,7 +3352,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -3653,7 +3366,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -3667,7 +3380,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -3681,7 +3394,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3408,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -3709,7 +3422,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -3723,7 +3436,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -3737,7 +3450,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
@@ -3751,7 +3464,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -3765,7 +3478,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
@@ -3779,7 +3492,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -3793,7 +3506,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
@@ -3807,7 +3520,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
@@ -3821,7 +3534,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -3835,7 +3548,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -3849,7 +3562,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -3863,7 +3576,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -3880,7 +3593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3607,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
@@ -3908,7 +3621,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -3922,7 +3635,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
@@ -3936,7 +3649,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>11</v>
       </c>
@@ -3950,7 +3663,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
@@ -3964,7 +3677,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -3978,7 +3691,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
@@ -3992,7 +3705,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
@@ -4006,7 +3719,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
@@ -4020,7 +3733,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
@@ -4034,7 +3747,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -4048,7 +3761,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>10</v>
       </c>
@@ -4062,7 +3775,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +3789,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -4090,7 +3803,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
@@ -4104,7 +3817,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -4118,7 +3831,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>9</v>
       </c>
@@ -4132,7 +3845,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -4146,7 +3859,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -4160,7 +3873,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
@@ -4174,10 +3887,33 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="1">
+        <v>6</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="4">
+        <v>45322</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -4190,7 +3926,7 @@
     <mergeCell ref="E51:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
